--- a/sriramModel-nelson-melancholic-patientID_33-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.87685401756841</v>
+        <v>21.7315017902404</v>
       </c>
       <c r="C2">
-        <v>21.75286610823407</v>
+        <v>21.74575187905727</v>
       </c>
       <c r="D2">
-        <v>21.86016867276294</v>
+        <v>21.77042468678431</v>
       </c>
       <c r="E2">
-        <v>21.75726669951166</v>
+        <v>21.74169055486904</v>
       </c>
       <c r="F2">
-        <v>21.749854943111</v>
+        <v>21.83742022174409</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.95792076200969</v>
+        <v>21.67182072399644</v>
       </c>
       <c r="C3">
-        <v>21.71413125920887</v>
+        <v>21.70058757567864</v>
       </c>
       <c r="D3">
-        <v>21.93436716623424</v>
+        <v>21.74789626882819</v>
       </c>
       <c r="E3">
-        <v>21.722169344263</v>
+        <v>21.69124765994087</v>
       </c>
       <c r="F3">
-        <v>21.70972219226435</v>
+        <v>21.88886821573278</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.04318637024989</v>
+        <v>21.62092882748948</v>
       </c>
       <c r="C4">
-        <v>21.68371590599486</v>
+        <v>21.66438178372619</v>
       </c>
       <c r="D4">
-        <v>22.02204364307889</v>
+        <v>21.73239984734829</v>
       </c>
       <c r="E4">
-        <v>21.69467526852652</v>
+        <v>21.64864588791523</v>
       </c>
       <c r="F4">
-        <v>21.67952994795149</v>
+        <v>21.95391452309092</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.13263664119785</v>
+        <v>21.57879818182949</v>
       </c>
       <c r="C5">
-        <v>21.66154346123711</v>
+        <v>21.63701652015203</v>
       </c>
       <c r="D5">
-        <v>22.12265692062106</v>
+        <v>21.72392027246936</v>
       </c>
       <c r="E5">
-        <v>21.67475255117593</v>
+        <v>21.61386004135843</v>
       </c>
       <c r="F5">
-        <v>21.65920730246988</v>
+        <v>22.03213798231696</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.22625745047238</v>
+        <v>21.54540130660746</v>
       </c>
       <c r="C6">
-        <v>21.64754024998791</v>
+        <v>21.61838065912519</v>
       </c>
       <c r="D6">
-        <v>22.23567420746293</v>
+        <v>21.72244250482571</v>
       </c>
       <c r="E6">
-        <v>21.66237030722582</v>
+        <v>21.5868654706859</v>
       </c>
       <c r="F6">
-        <v>21.64868433415372</v>
+        <v>22.12312281127702</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.32403473510442</v>
+        <v>21.52071112053023</v>
       </c>
       <c r="C7">
-        <v>21.64163530216051</v>
+        <v>21.60836912508279</v>
       </c>
       <c r="D7">
-        <v>22.36056972589003</v>
+        <v>21.72795160039947</v>
       </c>
       <c r="E7">
-        <v>21.6574985718048</v>
+        <v>21.56763802036908</v>
       </c>
       <c r="F7">
-        <v>21.64789186825843</v>
+        <v>22.22645660519957</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.42595449974183</v>
+        <v>21.50470092869853</v>
       </c>
       <c r="C8">
-        <v>21.64376019328129</v>
+        <v>21.60688232687456</v>
       </c>
       <c r="D8">
-        <v>22.49682354391755</v>
+        <v>21.740432708189</v>
       </c>
       <c r="E8">
-        <v>21.66010826058698</v>
+        <v>21.55615401530524</v>
       </c>
       <c r="F8">
-        <v>21.65676128056097</v>
+        <v>22.34172865389519</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.53200281909712</v>
+        <v>21.49734440754236</v>
       </c>
       <c r="C9">
-        <v>21.65384889057382</v>
+        <v>21.61382567460401</v>
       </c>
       <c r="D9">
-        <v>22.64392088443153</v>
+        <v>21.75987106879854</v>
       </c>
       <c r="E9">
-        <v>21.6701711460935</v>
+        <v>21.55239024995609</v>
       </c>
       <c r="F9">
-        <v>21.67522428740319</v>
+        <v>22.46852885754014</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.64216583218006</v>
+        <v>21.49861557989688</v>
       </c>
       <c r="C10">
-        <v>21.67183759376933</v>
+        <v>21.62910909604879</v>
       </c>
       <c r="D10">
-        <v>22.80135182882675</v>
+        <v>21.78625200768005</v>
       </c>
       <c r="E10">
-        <v>21.68765976738745</v>
+        <v>21.55632394650819</v>
       </c>
       <c r="F10">
-        <v>21.70321275869097</v>
+        <v>22.60644699556083</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.75642974007816</v>
+        <v>21.50848879312887</v>
       </c>
       <c r="C11">
-        <v>21.69766457840584</v>
+        <v>21.65264664501686</v>
       </c>
       <c r="D11">
-        <v>22.96861114461315</v>
+        <v>21.81956093066033</v>
       </c>
       <c r="E11">
-        <v>21.71254738652141</v>
+        <v>21.56793273538202</v>
       </c>
       <c r="F11">
-        <v>21.74065855067094</v>
+        <v>22.75507221915518</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.87478080444479</v>
+        <v>21.52693870297088</v>
       </c>
       <c r="C12">
-        <v>21.73127007376696</v>
+        <v>21.68435617019651</v>
       </c>
       <c r="D12">
-        <v>23.14519822810041</v>
+        <v>21.85978331935929</v>
       </c>
       <c r="E12">
-        <v>21.74480795249145</v>
+        <v>21.58719463686267</v>
       </c>
       <c r="F12">
-        <v>21.78749328138781</v>
+        <v>22.91399268962294</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.9972053466151</v>
+        <v>21.5539402593657</v>
       </c>
       <c r="C13">
-        <v>21.77259615788964</v>
+        <v>21.72415901807361</v>
       </c>
       <c r="D13">
-        <v>23.3306171670995</v>
+        <v>21.90690472500885</v>
       </c>
       <c r="E13">
-        <v>21.78441606385595</v>
+        <v>21.61408804217733</v>
       </c>
       <c r="F13">
-        <v>21.84364811047987</v>
+        <v>23.08279537686802</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.12368974546013</v>
+        <v>21.58946869138198</v>
       </c>
       <c r="C14">
-        <v>21.82158665204282</v>
+        <v>21.77197974085678</v>
       </c>
       <c r="D14">
-        <v>23.52437689735256</v>
+        <v>21.96091076343569</v>
       </c>
       <c r="E14">
-        <v>21.83134692188564</v>
+        <v>21.64859169349014</v>
       </c>
       <c r="F14">
-        <v>21.90905352707963</v>
+        <v>23.26106598104978</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.25422043543616</v>
+        <v>21.63349948871749</v>
       </c>
       <c r="C15">
-        <v>21.87818701919135</v>
+        <v>21.82774582373778</v>
       </c>
       <c r="D15">
-        <v>23.7259914081524</v>
+        <v>22.02178710944031</v>
       </c>
       <c r="E15">
-        <v>21.88557629425469</v>
+        <v>21.69068465259802</v>
       </c>
       <c r="F15">
-        <v>21.9836391420916</v>
+        <v>23.44838895586074</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.38878390529677</v>
+        <v>21.68600839011114</v>
       </c>
       <c r="C16">
-        <v>21.94234426601381</v>
+        <v>21.89138747583807</v>
       </c>
       <c r="D16">
-        <v>23.93497999624601</v>
+        <v>22.08951949078183</v>
       </c>
       <c r="E16">
-        <v>21.94708054433137</v>
+        <v>21.74034632890258</v>
       </c>
       <c r="F16">
-        <v>22.06733350290975</v>
+        <v>23.64434758121381</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.52736669405369</v>
+        <v>21.74697135539799</v>
       </c>
       <c r="C17">
-        <v>22.01400685532267</v>
+        <v>21.96283744358579</v>
       </c>
       <c r="D17">
-        <v>24.15086751005192</v>
+        <v>22.16409368180492</v>
       </c>
       <c r="E17">
-        <v>22.01583650320716</v>
+        <v>21.79755641190361</v>
       </c>
       <c r="F17">
-        <v>22.16006388582755</v>
+        <v>23.84852409212977</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.66995538926287</v>
+        <v>21.81636456551689</v>
       </c>
       <c r="C18">
-        <v>22.09312461029328</v>
+        <v>22.04203083309698</v>
       </c>
       <c r="D18">
-        <v>24.37318462469445</v>
+        <v>22.24549549298857</v>
       </c>
       <c r="E18">
-        <v>22.09182147602012</v>
+        <v>21.86229487493667</v>
       </c>
       <c r="F18">
-        <v>22.26175604054812</v>
+        <v>24.06049988405039</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.81653662516507</v>
+        <v>21.89416438455908</v>
       </c>
       <c r="C19">
-        <v>22.17964867284543</v>
+        <v>22.1289049463589</v>
       </c>
       <c r="D19">
-        <v>24.60146817985142</v>
+        <v>22.33371077531186</v>
       </c>
       <c r="E19">
-        <v>22.17501321199001</v>
+        <v>21.93454193834316</v>
       </c>
       <c r="F19">
-        <v>22.37233395294099</v>
+        <v>24.27985576597221</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.96709707973899</v>
+        <v>21.98034736145659</v>
       </c>
       <c r="C20">
-        <v>22.27353137920331</v>
+        <v>22.22339911894325</v>
       </c>
       <c r="D20">
-        <v>24.83526151753697</v>
+        <v>22.42872539440558</v>
       </c>
       <c r="E20">
-        <v>22.26538987556675</v>
+        <v>22.01427807482246</v>
       </c>
       <c r="F20">
-        <v>22.49171961756798</v>
+        <v>24.5061722530974</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.12162347107887</v>
+        <v>22.07489019352253</v>
       </c>
       <c r="C21">
-        <v>22.37472625617453</v>
+        <v>22.32545459390811</v>
       </c>
       <c r="D21">
-        <v>25.07411477510589</v>
+        <v>22.53052524829593</v>
       </c>
       <c r="E21">
-        <v>22.36293004497639</v>
+        <v>22.10148399133765</v>
       </c>
       <c r="F21">
-        <v>22.61983275630355</v>
+        <v>24.73902983250423</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.28010255431193</v>
+        <v>22.17776972059577</v>
       </c>
       <c r="C22">
-        <v>22.48318790622056</v>
+        <v>22.43501435105498</v>
       </c>
       <c r="D22">
-        <v>25.31758515313152</v>
+        <v>22.63909622800468</v>
       </c>
       <c r="E22">
-        <v>22.46761266907536</v>
+        <v>22.19614061153311</v>
       </c>
       <c r="F22">
-        <v>22.75659057711688</v>
+        <v>24.97800929785552</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.44252111966766</v>
+        <v>22.28896289258305</v>
       </c>
       <c r="C23">
-        <v>22.59887197787198</v>
+        <v>22.55202302043701</v>
       </c>
       <c r="D23">
-        <v>25.56523722443049</v>
+        <v>22.75442423422764</v>
       </c>
       <c r="E23">
-        <v>22.5794170415507</v>
+        <v>22.29822906098766</v>
       </c>
       <c r="F23">
-        <v>22.90190749318415</v>
+        <v>25.22269211692105</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.60886598738495</v>
+        <v>22.40844675610466</v>
       </c>
       <c r="C24">
-        <v>22.72173509496644</v>
+        <v>22.67642680694622</v>
       </c>
       <c r="D24">
-        <v>25.81664323683863</v>
+        <v>22.87649514517866</v>
       </c>
       <c r="E24">
-        <v>22.69832277574481</v>
+        <v>22.40773064358945</v>
       </c>
       <c r="F24">
-        <v>23.05569478014063</v>
+        <v>25.47266078590904</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.77912400348889</v>
+        <v>22.53619841956391</v>
       </c>
       <c r="C25">
-        <v>22.85173479463974</v>
+        <v>22.80817338982832</v>
       </c>
       <c r="D25">
-        <v>26.07138340460893</v>
+        <v>23.00529481889709</v>
       </c>
       <c r="E25">
-        <v>22.82430977906762</v>
+        <v>22.52462682748556</v>
       </c>
       <c r="F25">
-        <v>23.21786036708658</v>
+        <v>25.72749921190794</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>24.95328203504688</v>
+        <v>22.67219503525417</v>
       </c>
       <c r="C26">
-        <v>22.98882948208708</v>
+        <v>22.94721179071734</v>
       </c>
       <c r="D26">
-        <v>26.32904611103713</v>
+        <v>23.14080907469263</v>
       </c>
       <c r="E26">
-        <v>22.95735823090772</v>
+        <v>22.64889922817209</v>
       </c>
       <c r="F26">
-        <v>23.38830837538832</v>
+        <v>25.98679303821478</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>25.13132696805479</v>
+        <v>22.81641375730567</v>
       </c>
       <c r="C27">
-        <v>23.13297836829893</v>
+        <v>23.09349229993845</v>
       </c>
       <c r="D27">
-        <v>26.58922825865438</v>
+        <v>23.28302367979887</v>
       </c>
       <c r="E27">
-        <v>23.09744855775812</v>
+        <v>22.78052959100319</v>
       </c>
       <c r="F27">
-        <v>23.5669389266378</v>
+        <v>26.25013012700643</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>25.31324569885031</v>
+        <v>22.96883171659183</v>
       </c>
       <c r="C28">
-        <v>23.28414142969137</v>
+        <v>23.24696637693497</v>
       </c>
       <c r="D28">
-        <v>26.8515353687461</v>
+        <v>23.43192433943008</v>
       </c>
       <c r="E28">
-        <v>23.24456141282039</v>
+        <v>22.91949977420999</v>
       </c>
       <c r="F28">
-        <v>23.75364764106589</v>
+        <v>26.51710086012956</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>25.49902512896207</v>
+        <v>23.12942597377816</v>
       </c>
       <c r="C29">
-        <v>23.44227935647273</v>
+        <v>23.40758659266919</v>
       </c>
       <c r="D29">
-        <v>27.11558191571322</v>
+        <v>23.58749666968767</v>
       </c>
       <c r="E29">
-        <v>23.39867764659714</v>
+        <v>23.0657917285428</v>
       </c>
       <c r="F29">
-        <v>23.94832538920838</v>
+        <v>26.78729860306807</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>25.68865215745839</v>
+        <v>23.29817347651022</v>
       </c>
       <c r="C30">
-        <v>23.60735350315193</v>
+        <v>23.57530655948901</v>
       </c>
       <c r="D30">
-        <v>27.38099139442611</v>
+        <v>23.74972619195524</v>
       </c>
       <c r="E30">
-        <v>23.55977828845598</v>
+        <v>23.21938747619456</v>
       </c>
       <c r="F30">
-        <v>24.15085778796417</v>
+        <v>27.06032003854812</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>25.88211367848302</v>
+        <v>23.47505101526398</v>
       </c>
       <c r="C31">
-        <v>23.77932584163479</v>
+        <v>23.75008084897231</v>
       </c>
       <c r="D31">
-        <v>27.6473965363169</v>
+        <v>23.91859829413066</v>
       </c>
       <c r="E31">
-        <v>23.72784451293949</v>
+        <v>23.38026908848055</v>
       </c>
       <c r="F31">
-        <v>24.361124847467</v>
+        <v>27.33576556972649</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>26.07939656662903</v>
+        <v>23.66003514433634</v>
       </c>
       <c r="C32">
-        <v>23.95815890890321</v>
+        <v>23.93186492980247</v>
       </c>
       <c r="D32">
-        <v>27.91443945961958</v>
+        <v>24.0940982241401</v>
       </c>
       <c r="E32">
-        <v>23.90285762065102</v>
+        <v>23.54841866239431</v>
       </c>
       <c r="F32">
-        <v>24.57900051168463</v>
+        <v>27.61323964539282</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>26.28048766955783</v>
+        <v>23.85310215442509</v>
       </c>
       <c r="C33">
-        <v>24.1438157543167</v>
+        <v>24.12061509838728</v>
       </c>
       <c r="D33">
-        <v>28.18177167756187</v>
+        <v>24.2762110474069</v>
       </c>
       <c r="E33">
-        <v>24.08479899650216</v>
+        <v>23.72381829434119</v>
       </c>
       <c r="F33">
-        <v>24.80435211924924</v>
+        <v>27.89235113033565</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>26.48537379789254</v>
+        <v>24.05422792643716</v>
       </c>
       <c r="C34">
-        <v>24.33625989314276</v>
+        <v>24.31628841274822</v>
       </c>
       <c r="D34">
-        <v>28.44905433042538</v>
+        <v>24.46492162672978</v>
       </c>
       <c r="E34">
-        <v>24.27365009376714</v>
+        <v>23.90645005221978</v>
       </c>
       <c r="F34">
-        <v>25.03704006307402</v>
+        <v>28.17271361951698</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>26.6940417166963</v>
+        <v>24.26338794249849</v>
       </c>
       <c r="C35">
-        <v>24.53545525296782</v>
+        <v>24.51884262526825</v>
       </c>
       <c r="D35">
-        <v>28.71595805143822</v>
+        <v>24.66021458423868</v>
       </c>
       <c r="E35">
-        <v>24.46939237747859</v>
+        <v>24.09629594398308</v>
       </c>
       <c r="F35">
-        <v>25.27691703175995</v>
+        <v>28.45394570904483</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>26.90647812526886</v>
+        <v>24.48055704343792</v>
       </c>
       <c r="C36">
-        <v>24.74136612014679</v>
+        <v>24.72823611683608</v>
       </c>
       <c r="D36">
-        <v>28.98216312615631</v>
+        <v>24.86207425367531</v>
       </c>
       <c r="E36">
-        <v>24.67200731610831</v>
+        <v>24.29333788316042</v>
       </c>
       <c r="F36">
-        <v>25.52382771337814</v>
+        <v>28.73567134643849</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>27.12266964281407</v>
+        <v>24.70570947204172</v>
       </c>
       <c r="C37">
-        <v>24.95395708670714</v>
+        <v>24.9444278306941</v>
       </c>
       <c r="D37">
-        <v>29.24735937813193</v>
+        <v>25.07048465802558</v>
       </c>
       <c r="E37">
-        <v>24.88147630422603</v>
+        <v>24.49755765024141</v>
       </c>
       <c r="F37">
-        <v>25.77760792923952</v>
+        <v>29.0175199773382</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>27.34260279495625</v>
+        <v>24.93881852782568</v>
       </c>
       <c r="C38">
-        <v>25.17319298046667</v>
+        <v>25.167377204005</v>
       </c>
       <c r="D38">
-        <v>29.51124607164068</v>
+        <v>25.28542941893021</v>
       </c>
       <c r="E38">
-        <v>25.09778066039015</v>
+        <v>24.70893684756787</v>
       </c>
       <c r="F38">
-        <v>26.03808425459774</v>
+        <v>29.29912681490636</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>27.56626399241332</v>
+        <v>25.17985662267911</v>
       </c>
       <c r="C39">
-        <v>25.39903880870101</v>
+        <v>25.39704409513493</v>
       </c>
       <c r="D39">
-        <v>29.77353196501674</v>
+        <v>25.50689174906345</v>
       </c>
       <c r="E39">
-        <v>25.32090152374495</v>
+        <v>24.92745684998467</v>
       </c>
       <c r="F39">
-        <v>26.3050731372218</v>
+        <v>29.58013300472893</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>27.79363950124182</v>
+        <v>25.42879481507981</v>
       </c>
       <c r="C40">
-        <v>25.63145968245972</v>
+        <v>25.63338870902791</v>
       </c>
       <c r="D40">
-        <v>30.03393489766806</v>
+        <v>25.73485432169797</v>
       </c>
       <c r="E40">
-        <v>25.55081985827355</v>
+        <v>25.15309874697768</v>
       </c>
       <c r="F40">
-        <v>26.57838032189801</v>
+        <v>29.86018564566738</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>28.02471541418412</v>
+        <v>25.68560285804736</v>
       </c>
       <c r="C41">
-        <v>25.8704207278044</v>
+        <v>25.87637151271622</v>
       </c>
       <c r="D41">
-        <v>30.29218187587435</v>
+        <v>25.96929925469129</v>
       </c>
       <c r="E41">
-        <v>25.78751631170703</v>
+        <v>25.38584327973181</v>
       </c>
       <c r="F41">
-        <v>26.85780005932592</v>
+        <v>30.13893803338548</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>28.25947763154808</v>
+        <v>25.95024858429565</v>
       </c>
       <c r="C42">
-        <v>26.11588702888646</v>
+        <v>26.12595314458681</v>
       </c>
       <c r="D42">
-        <v>30.54800856582003</v>
+        <v>26.21020795603506</v>
       </c>
       <c r="E42">
-        <v>26.03097122743112</v>
+        <v>25.62567076253611</v>
       </c>
       <c r="F42">
-        <v>27.14311417399417</v>
+        <v>30.41604947832774</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>28.49791182069603</v>
+        <v>26.22269790636276</v>
       </c>
       <c r="C43">
-        <v>26.36782348854085</v>
+        <v>26.38209431658808</v>
       </c>
       <c r="D43">
-        <v>30.80115916215435</v>
+        <v>26.45756106457625</v>
       </c>
       <c r="E43">
-        <v>26.28116445261209</v>
+        <v>25.87256099442956</v>
       </c>
       <c r="F43">
-        <v>27.43409150043039</v>
+        <v>30.69118536694506</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>28.74000335320111</v>
+        <v>26.5029140293068</v>
       </c>
       <c r="C44">
-        <v>26.62619476114376</v>
+        <v>26.64475570613596</v>
       </c>
       <c r="D44">
-        <v>31.05138600309961</v>
+        <v>26.71133829589653</v>
       </c>
       <c r="E44">
-        <v>26.53807535422877</v>
+        <v>26.12649315510842</v>
       </c>
       <c r="F44">
-        <v>27.73048653269771</v>
+        <v>30.96401708313233</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>28.98573725480669</v>
+        <v>26.7908573127062</v>
       </c>
       <c r="C45">
-        <v>26.89096509744464</v>
+        <v>26.9138978270542</v>
       </c>
       <c r="D45">
-        <v>31.2984491094051</v>
+        <v>26.97151827452614</v>
       </c>
       <c r="E45">
-        <v>26.80168256222705</v>
+        <v>26.38744568197376</v>
       </c>
       <c r="F45">
-        <v>28.03203894738528</v>
+        <v>31.23422164192254</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>29.23509815181168</v>
+        <v>27.08648431354222</v>
       </c>
       <c r="C46">
-        <v>27.16209819658755</v>
+        <v>27.18948088299861</v>
       </c>
       <c r="D46">
-        <v>31.54211570836097</v>
+        <v>27.23807843556111</v>
       </c>
       <c r="E46">
-        <v>27.07196400378899</v>
+        <v>26.65539612979174</v>
       </c>
       <c r="F46">
-        <v>28.33847204539935</v>
+        <v>31.50148177129068</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>29.48807019455142</v>
+        <v>27.38974731817781</v>
       </c>
       <c r="C47">
-        <v>27.43955708912413</v>
+        <v>27.47146459598463</v>
       </c>
       <c r="D47">
-        <v>31.78215967678492</v>
+        <v>27.51099464948403</v>
       </c>
       <c r="E47">
-        <v>27.34889654864052</v>
+        <v>26.93032099077498</v>
       </c>
       <c r="F47">
-        <v>28.64949212189758</v>
+        <v>31.76548519549456</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>29.74463696166099</v>
+        <v>27.70059328861994</v>
       </c>
       <c r="C48">
-        <v>27.72330384126517</v>
+        <v>27.75980801432973</v>
       </c>
       <c r="D48">
-        <v>32.01836101285069</v>
+        <v>27.790241217209</v>
       </c>
       <c r="E48">
-        <v>27.63245589251263</v>
+        <v>27.21219548770503</v>
       </c>
       <c r="F48">
-        <v>28.96478688224907</v>
+        <v>32.02592439433808</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30.00478134607419</v>
+        <v>28.01896306541597</v>
       </c>
       <c r="C49">
-        <v>28.01329944941958</v>
+        <v>28.0544692693433</v>
       </c>
       <c r="D49">
-        <v>32.25050513639214</v>
+        <v>28.07579024929961</v>
       </c>
       <c r="E49">
-        <v>27.9226163048839</v>
+        <v>27.50099331694955</v>
       </c>
       <c r="F49">
-        <v>29.28402444823068</v>
+        <v>32.28249609737705</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30.26848541757573</v>
+        <v>28.34478939539462</v>
       </c>
       <c r="C50">
-        <v>28.3095034398508</v>
+        <v>28.35540528245952</v>
       </c>
       <c r="D50">
-        <v>32.4783821855471</v>
+        <v>28.36761170280321</v>
       </c>
       <c r="E50">
-        <v>28.21935033956079</v>
+        <v>27.79668635506538</v>
       </c>
       <c r="F50">
-        <v>29.60685194852485</v>
+        <v>32.53490070380495</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>30.53573025230734</v>
+        <v>28.67799555354934</v>
       </c>
       <c r="C51">
-        <v>28.61187367004124</v>
+        <v>28.66257140974367</v>
       </c>
       <c r="D51">
-        <v>32.7017862421986</v>
+        <v>28.66567252707259</v>
       </c>
       <c r="E51">
-        <v>28.52262846295475</v>
+        <v>28.09924427160739</v>
       </c>
       <c r="F51">
-        <v>29.93289388595403</v>
+        <v>32.78284164918664</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>30.8064957240844</v>
+        <v>29.0184932342943</v>
       </c>
       <c r="C52">
-        <v>28.92036577279737</v>
+        <v>28.9759210216882</v>
       </c>
       <c r="D52">
-        <v>32.92051446213284</v>
+        <v>28.96993630092632</v>
       </c>
       <c r="E52">
-        <v>28.83241860060297</v>
+        <v>28.40863406211874</v>
       </c>
       <c r="F52">
-        <v>30.26175114149121</v>
+        <v>33.02602464569894</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31.08076024330167</v>
+        <v>29.36618029732557</v>
       </c>
       <c r="C53">
-        <v>29.23493272425004</v>
+        <v>29.29540496438899</v>
       </c>
       <c r="D53">
-        <v>33.1343662166473</v>
+        <v>29.28036254183718</v>
       </c>
       <c r="E53">
-        <v>29.14868563287335</v>
+        <v>28.72481947100676</v>
       </c>
       <c r="F53">
-        <v>30.59299863835547</v>
+        <v>33.26415688555073</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31.35850043337908</v>
+        <v>29.72093733930361</v>
       </c>
       <c r="C54">
-        <v>29.55552425560922</v>
+        <v>29.62097085654131</v>
       </c>
       <c r="D54">
-        <v>33.34314220893297</v>
+        <v>29.59690592235009</v>
       </c>
       <c r="E54">
-        <v>29.4713906263198</v>
+        <v>29.04776025625645</v>
       </c>
       <c r="F54">
-        <v>30.92618449439815</v>
+        <v>33.49694622304549</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31.63969072668026</v>
+        <v>30.08262363877875</v>
       </c>
       <c r="C55">
-        <v>29.88208609211918</v>
+        <v>29.95256221997658</v>
       </c>
       <c r="D55">
-        <v>33.54664358166267</v>
+        <v>29.91951521760932</v>
       </c>
       <c r="E55">
-        <v>29.80048997544812</v>
+        <v>29.37741133268645</v>
       </c>
       <c r="F55">
-        <v>31.26082741995202</v>
+        <v>33.72410031521419</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>31.92430272955894</v>
+        <v>30.45107235673265</v>
       </c>
       <c r="C56">
-        <v>30.21455901871367</v>
+        <v>30.29011749998158</v>
       </c>
       <c r="D56">
-        <v>33.74467108013166</v>
+        <v>30.24813199778317</v>
       </c>
       <c r="E56">
-        <v>30.13593434770137</v>
+        <v>29.71372154264717</v>
       </c>
       <c r="F56">
-        <v>31.59641562754975</v>
+        <v>33.94532586371979</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>32.21230461256294</v>
+        <v>30.82608505299326</v>
       </c>
       <c r="C57">
-        <v>30.55287769894284</v>
+        <v>30.63356838194371</v>
       </c>
       <c r="D57">
-        <v>33.93702427596153</v>
+        <v>30.58268902169859</v>
       </c>
       <c r="E57">
-        <v>30.47766729146402</v>
+        <v>30.05663219067226</v>
       </c>
       <c r="F57">
-        <v>31.93240430827105</v>
+        <v>34.160327918505</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>32.50366028888993</v>
+        <v>31.20742260890658</v>
       </c>
       <c r="C58">
-        <v>30.89696911275554</v>
+        <v>30.98283800491575</v>
       </c>
       <c r="D58">
-        <v>34.12350102744357</v>
+        <v>30.92310825941973</v>
       </c>
       <c r="E58">
-        <v>30.8256233550978</v>
+        <v>30.40607507479221</v>
       </c>
       <c r="F58">
-        <v>32.26821410317885</v>
+        <v>34.36880934487029</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>32.79832800333318</v>
+        <v>31.59479606521903</v>
       </c>
       <c r="C59">
-        <v>31.24675062676667</v>
+        <v>31.33783848743757</v>
       </c>
       <c r="D59">
-        <v>34.30389718239185</v>
+        <v>31.26929814887207</v>
       </c>
       <c r="E59">
-        <v>31.17972588074064</v>
+        <v>30.76197008543788</v>
       </c>
       <c r="F59">
-        <v>32.60322889447276</v>
+        <v>34.57047069716398</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>33.0962588140525</v>
+        <v>31.98785500890876</v>
       </c>
       <c r="C60">
-        <v>31.60212746272828</v>
+        <v>31.69846757876877</v>
       </c>
       <c r="D60">
-        <v>34.47800665644915</v>
+        <v>31.62115029201171</v>
       </c>
       <c r="E60">
-        <v>31.53988358063894</v>
+        <v>31.1242218690835</v>
       </c>
       <c r="F60">
-        <v>32.93679388867161</v>
+        <v>34.76501056119558</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>33.39739450901268</v>
+        <v>32.38617278034165</v>
       </c>
       <c r="C61">
-        <v>31.96298929969497</v>
+        <v>32.0646040833203</v>
       </c>
       <c r="D61">
-        <v>34.64562205581957</v>
+        <v>31.97853493778754</v>
       </c>
       <c r="E61">
-        <v>31.90598658977172</v>
+        <v>31.49271538439441</v>
       </c>
       <c r="F61">
-        <v>33.26821373186652</v>
+        <v>34.95212650010676</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>33.70166458357809</v>
+        <v>32.78922786739698</v>
       </c>
       <c r="C62">
-        <v>32.32920644182112</v>
+        <v>32.43610165045065</v>
       </c>
       <c r="D62">
-        <v>34.80653601282036</v>
+        <v>32.3412958659555</v>
       </c>
       <c r="E62">
-        <v>32.27790110184925</v>
+        <v>31.86731009629314</v>
       </c>
       <c r="F62">
-        <v>33.59675072076969</v>
+        <v>35.1315169149234</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>34.00898217465114</v>
+        <v>33.19638119979745</v>
       </c>
       <c r="C63">
-        <v>32.70062299480367</v>
+        <v>32.81278030598152</v>
       </c>
       <c r="D63">
-        <v>34.96054339449548</v>
+        <v>32.70924270780414</v>
       </c>
       <c r="E63">
-        <v>32.65546199100264</v>
+        <v>32.24783274954509</v>
       </c>
       <c r="F63">
-        <v>33.92162324277457</v>
+        <v>35.30288400875074</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>34.31923843618989</v>
+        <v>33.60684883485686</v>
       </c>
       <c r="C64">
-        <v>33.07704932757306</v>
+        <v>33.19441489092063</v>
       </c>
       <c r="D64">
-        <v>35.1074444659384</v>
+        <v>33.08214088997086</v>
       </c>
       <c r="E64">
-        <v>33.03846274626542</v>
+        <v>32.63406532811279</v>
       </c>
       <c r="F64">
-        <v>34.24200456824688</v>
+        <v>35.46593808397528</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>34.63229453242925</v>
+        <v>34.01966944041947</v>
       </c>
       <c r="C65">
-        <v>33.45825145310764</v>
+        <v>33.58071784076636</v>
       </c>
       <c r="D65">
-        <v>35.24704910185603</v>
+        <v>33.45969815173022</v>
       </c>
       <c r="E65">
-        <v>33.42664184884845</v>
+        <v>33.02573117232696</v>
       </c>
       <c r="F65">
-        <v>34.55702218513646</v>
+        <v>35.62040319217315</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>34.94797043666054</v>
+        <v>34.43366638136543</v>
       </c>
       <c r="C66">
-        <v>33.84393613362032</v>
+        <v>33.97131689721544</v>
       </c>
       <c r="D66">
-        <v>35.3791819112781</v>
+        <v>33.84154781017585</v>
       </c>
       <c r="E66">
-        <v>33.81966447205508</v>
+        <v>33.42247587336773</v>
       </c>
       <c r="F66">
-        <v>34.86575785955603</v>
+        <v>35.76602409367258</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>35.26602878230516</v>
+        <v>34.84740506055505</v>
       </c>
       <c r="C67">
-        <v>34.23373036266896</v>
+        <v>34.36572363549082</v>
       </c>
       <c r="D67">
-        <v>35.50368798379773</v>
+        <v>34.22722575565829</v>
       </c>
       <c r="E67">
-        <v>34.21709525947804</v>
+        <v>33.82383988935991</v>
       </c>
       <c r="F67">
-        <v>35.16724833208807</v>
+        <v>35.90257419928949</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>35.58615205861687</v>
+        <v>35.25914740228107</v>
       </c>
       <c r="C68">
-        <v>34.62715267626295</v>
+        <v>34.76328936058112</v>
       </c>
       <c r="D68">
-        <v>35.62043882956279</v>
+        <v>34.61613988040507</v>
       </c>
       <c r="E68">
-        <v>34.61836350423304</v>
+        <v>34.22922049014943</v>
       </c>
       <c r="F68">
-        <v>35.46048758079373</v>
+        <v>36.02986387859891</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>35.90790990178085</v>
+        <v>35.66680714333365</v>
       </c>
       <c r="C69">
-        <v>35.02357212187455</v>
+        <v>35.16314694572669</v>
       </c>
       <c r="D69">
-        <v>35.72933777928082</v>
+        <v>35.00752712478758</v>
       </c>
       <c r="E69">
-        <v>35.02271457289938</v>
+        <v>34.63782366438002</v>
       </c>
       <c r="F69">
-        <v>35.74443074794829</v>
+        <v>36.14774834180612</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>36.23071266389172</v>
+        <v>36.06791096657511</v>
       </c>
       <c r="C70">
-        <v>35.42215415042298</v>
+        <v>35.5641338978855</v>
       </c>
       <c r="D70">
-        <v>35.83032408824376</v>
+        <v>35.40039938834206</v>
       </c>
       <c r="E70">
-        <v>35.42914297670586</v>
+        <v>35.04859789249278</v>
       </c>
       <c r="F70">
-        <v>36.01799954565352</v>
+        <v>36.256133894332</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>36.5537485482113</v>
+        <v>36.45957877244491</v>
       </c>
       <c r="C71">
-        <v>35.82178357778465</v>
+        <v>35.9646971816348</v>
       </c>
       <c r="D71">
-        <v>35.92337548812912</v>
+        <v>35.79347385439868</v>
       </c>
       <c r="E71">
-        <v>35.8363037443715</v>
+        <v>35.46014936543547</v>
       </c>
       <c r="F71">
-        <v>36.28009210469911</v>
+        <v>36.35498209650371</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>36.87589830471771</v>
+        <v>36.83853039681485</v>
       </c>
       <c r="C72">
-        <v>36.22096232106996</v>
+        <v>36.36278092164117</v>
       </c>
       <c r="D72">
-        <v>36.00850879596705</v>
+        <v>36.18508312625715</v>
       </c>
       <c r="E72">
-        <v>36.24240003131109</v>
+        <v>35.87063812093388</v>
       </c>
       <c r="F72">
-        <v>36.52959374333658</v>
+        <v>36.44431111281509</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>37.1956274128631</v>
+        <v>37.20113531155822</v>
       </c>
       <c r="C73">
-        <v>36.61767638795259</v>
+        <v>36.75570915297885</v>
       </c>
       <c r="D73">
-        <v>36.08577842618169</v>
+        <v>36.57306710306016</v>
       </c>
       <c r="E73">
-        <v>36.64504530826847</v>
+        <v>36.27765834157575</v>
       </c>
       <c r="F73">
-        <v>36.76539177946812</v>
+        <v>36.5241941888932</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>37.51085929007611</v>
+        <v>37.54351972503212</v>
       </c>
       <c r="C74">
-        <v>37.00923689505219</v>
+        <v>37.14008455570216</v>
       </c>
       <c r="D74">
-        <v>36.15527341606531</v>
+        <v>36.95465310070795</v>
       </c>
       <c r="E74">
-        <v>37.04111254579741</v>
+        <v>36.67811598790623</v>
       </c>
       <c r="F74">
-        <v>36.98639505158562</v>
+        <v>36.59475558763765</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>37.81884393996364</v>
+        <v>37.86173915327144</v>
       </c>
       <c r="C75">
-        <v>37.39210790672877</v>
+        <v>37.51173484440857</v>
       </c>
       <c r="D75">
-        <v>36.21711327125833</v>
+        <v>37.3263393076568</v>
       </c>
       <c r="E75">
-        <v>37.42659528256141</v>
+        <v>37.06812963443335</v>
       </c>
       <c r="F75">
-        <v>37.19155777913165</v>
+        <v>36.65616477941419</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>38.11605269327671</v>
+        <v>38.15201542078695</v>
       </c>
       <c r="C76">
-        <v>37.76176230646499</v>
+        <v>37.86575413231424</v>
       </c>
       <c r="D76">
-        <v>36.27144318594734</v>
+        <v>37.6838132363248</v>
       </c>
       <c r="E76">
-        <v>37.79653140333361</v>
+        <v>37.44299376490331</v>
       </c>
       <c r="F76">
-        <v>37.37990735450325</v>
+        <v>36.70862946525769</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>38.39814861156241</v>
+        <v>38.41100684227665</v>
       </c>
       <c r="C77">
-        <v>38.11263861830985</v>
+        <v>38.19668558793169</v>
       </c>
       <c r="D77">
-        <v>36.31842915158411</v>
+        <v>38.02196004042334</v>
       </c>
       <c r="E77">
-        <v>38.14505981584836</v>
+        <v>37.79726795253588</v>
       </c>
       <c r="F77">
-        <v>37.5505756504516</v>
+        <v>36.75238826704494</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>38.66009730848523</v>
+        <v>38.63608939498781</v>
       </c>
       <c r="C78">
-        <v>38.43828969951357</v>
+        <v>38.49887679803291</v>
       </c>
       <c r="D78">
-        <v>36.35825328593766</v>
+        <v>38.3350277900358</v>
       </c>
       <c r="E78">
-        <v>38.46569293626119</v>
+        <v>38.12503304239642</v>
       </c>
       <c r="F78">
-        <v>37.70283274945256</v>
+        <v>36.78770365208755</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>38.89647924659372</v>
+        <v>38.82558868200361</v>
       </c>
       <c r="C79">
-        <v>38.73182221831781</v>
+        <v>38.76699603658984</v>
       </c>
       <c r="D79">
-        <v>36.3911095723996</v>
+        <v>38.61700037597586</v>
       </c>
       <c r="E79">
-        <v>38.75185753047818</v>
+        <v>38.4203498600258</v>
       </c>
       <c r="F79">
-        <v>37.83612097171418</v>
+        <v>36.81485541345655</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>39.1020219754298</v>
+        <v>38.97891948878303</v>
       </c>
       <c r="C80">
-        <v>38.98665093410025</v>
+        <v>38.99663412452708</v>
       </c>
       <c r="D80">
-        <v>36.41720017496161</v>
+        <v>38.86220301566927</v>
       </c>
       <c r="E80">
-        <v>38.99767139174149</v>
+        <v>38.67788404024513</v>
       </c>
       <c r="F80">
-        <v>37.95008623321998</v>
+        <v>36.83413496001184</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>39.27228661666437</v>
+        <v>39.09660413501481</v>
       </c>
       <c r="C81">
-        <v>39.19745696428166</v>
+        <v>39.18485837555244</v>
       </c>
       <c r="D81">
-        <v>36.43673229354706</v>
+        <v>39.06604919581836</v>
       </c>
       <c r="E81">
-        <v>39.19880041758549</v>
+        <v>38.89357852165776</v>
       </c>
       <c r="F81">
-        <v>38.04460328723688</v>
+        <v>36.84584044718765</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>39.40434445553042</v>
+        <v>39.18016769268451</v>
       </c>
       <c r="C82">
-        <v>39.36108720788189</v>
+        <v>39.33056951455447</v>
       </c>
       <c r="D82">
-        <v>36.44991560996579</v>
+        <v>39.22574901866498</v>
       </c>
       <c r="E82">
-        <v>39.35314524607239</v>
+        <v>39.06520219402466</v>
       </c>
       <c r="F82">
-        <v>38.1197922913525</v>
+        <v>36.8502727566031</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>39.49723193393481</v>
+        <v>39.23193779948114</v>
       </c>
       <c r="C83">
-        <v>39.47707841739545</v>
+        <v>39.4345619395656</v>
       </c>
       <c r="D83">
-        <v>36.45696017131505</v>
+        <v>39.34075056474959</v>
       </c>
       <c r="E83">
-        <v>39.46112079392755</v>
+        <v>39.19261014709216</v>
       </c>
       <c r="F83">
-        <v>38.17601987273914</v>
+        <v>36.84773227651399</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>39.55202900979482</v>
+        <v>39.2547926276355</v>
       </c>
       <c r="C84">
-        <v>39.54761187563061</v>
+        <v>39.49928426208415</v>
       </c>
       <c r="D84">
-        <v>36.45807466581505</v>
+        <v>39.41275826242372</v>
       </c>
       <c r="E84">
-        <v>39.52543471714618</v>
+        <v>39.27764351854144</v>
       </c>
       <c r="F84">
-        <v>38.2138892548611</v>
+        <v>36.83851624180991</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>39.57154999381321</v>
+        <v>39.25190362995232</v>
       </c>
       <c r="C85">
-        <v>39.57694563757999</v>
+        <v>39.52839025318146</v>
       </c>
       <c r="D85">
-        <v>36.45346517060846</v>
+        <v>39.4453341336777</v>
       </c>
       <c r="E85">
-        <v>39.55049111728582</v>
+        <v>39.32372097283169</v>
       </c>
       <c r="F85">
-        <v>38.23421636935105</v>
+        <v>36.82291670394903</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>39.5597800831713</v>
+        <v>39.22650912820802</v>
       </c>
       <c r="C86">
-        <v>39.57056816784733</v>
+        <v>39.52621446134938</v>
       </c>
       <c r="D86">
-        <v>36.4433342122724</v>
+        <v>39.44324026491547</v>
       </c>
       <c r="E86">
-        <v>39.54162021831607</v>
+        <v>39.33526515753734</v>
       </c>
       <c r="F86">
-        <v>38.23799238216494</v>
+        <v>36.80121909179913</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>39.52124997736144</v>
+        <v>39.1817390787951</v>
       </c>
       <c r="C87">
-        <v>39.5343600518603</v>
+        <v>39.49729236114126</v>
       </c>
       <c r="D87">
-        <v>36.42788000152022</v>
+        <v>39.41173773842912</v>
       </c>
       <c r="E87">
-        <v>39.50436993968329</v>
+        <v>39.31712329936318</v>
       </c>
       <c r="F87">
-        <v>38.22633971159648</v>
+        <v>36.77370112345371</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>39.46050619789087</v>
+        <v>39.12049645959581</v>
       </c>
       <c r="C88">
-        <v>39.47395537427739</v>
+        <v>39.44599577498634</v>
       </c>
       <c r="D88">
-        <v>36.4072958344127</v>
+        <v>39.35600931643074</v>
       </c>
       <c r="E88">
-        <v>39.44398814987611</v>
+        <v>39.27409531817234</v>
       </c>
       <c r="F88">
-        <v>38.20046478177668</v>
+        <v>36.74063195441286</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>39.38175046097513</v>
+        <v>39.04538998857056</v>
       </c>
       <c r="C89">
-        <v>39.39436116189943</v>
+        <v>39.37630230491504</v>
       </c>
       <c r="D89">
-        <v>36.38176967961136</v>
+        <v>39.28077938377659</v>
       </c>
       <c r="E89">
-        <v>39.36512470583231</v>
+        <v>39.21061645725302</v>
       </c>
       <c r="F89">
-        <v>38.16161192317685</v>
+        <v>36.70227157896605</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>39.28864879748049</v>
+        <v>38.95870752360268</v>
       </c>
       <c r="C90">
-        <v>39.29979986368292</v>
+        <v>39.29168239609938</v>
       </c>
       <c r="D90">
-        <v>36.35148392181647</v>
+        <v>39.19012441706503</v>
       </c>
       <c r="E90">
-        <v>39.27171184740854</v>
+        <v>39.13058752463137</v>
       </c>
       <c r="F90">
-        <v>38.11102249566456</v>
+        <v>36.65887048171052</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>39.18427160884375</v>
+        <v>38.86241822181655</v>
       </c>
       <c r="C91">
-        <v>39.19370338528047</v>
+        <v>39.19507244166537</v>
       </c>
       <c r="D91">
-        <v>36.31661520759949</v>
+        <v>39.08742611763876</v>
       </c>
       <c r="E91">
-        <v>39.16696652118588</v>
+        <v>39.03731866545724</v>
       </c>
       <c r="F91">
-        <v>38.04990134984185</v>
+        <v>36.61066947385472</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>39.07111660078625</v>
+        <v>38.75819274746352</v>
       </c>
       <c r="C92">
-        <v>39.07879010552951</v>
+        <v>39.08890176007909</v>
       </c>
       <c r="D92">
-        <v>36.27733435298987</v>
+        <v>38.9754120546311</v>
       </c>
       <c r="E92">
-        <v>39.05346035550492</v>
+        <v>38.9335467756451</v>
       </c>
       <c r="F92">
-        <v>37.97939171355574</v>
+        <v>36.55789964643945</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>38.95117429193994</v>
+        <v>38.64743325340716</v>
       </c>
       <c r="C93">
-        <v>38.95717545904688</v>
+        <v>38.97514767670944</v>
       </c>
       <c r="D93">
-        <v>36.23380630853656</v>
+        <v>38.85623896683757</v>
       </c>
       <c r="E93">
-        <v>38.93321567942378</v>
+        <v>38.82149287004624</v>
       </c>
       <c r="F93">
-        <v>37.90055830813007</v>
+        <v>36.50078240024124</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>38.82600852221751</v>
+        <v>38.53130695999639</v>
       </c>
       <c r="C94">
-        <v>38.83048614992858</v>
+        <v>38.8554009712863</v>
       </c>
       <c r="D94">
-        <v>36.18619018689287</v>
+        <v>38.73158892621099</v>
       </c>
       <c r="E94">
-        <v>38.80780556697619</v>
+        <v>38.70293557410823</v>
       </c>
       <c r="F94">
-        <v>37.81437763194602</v>
+        <v>36.43952956538228</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>38.69683602622841</v>
+        <v>38.41077972404032</v>
       </c>
       <c r="C95">
-        <v>38.69996412442438</v>
+        <v>38.73093111956703</v>
       </c>
       <c r="D95">
-        <v>36.13463933063629</v>
+        <v>38.60276197654603</v>
       </c>
       <c r="E95">
-        <v>38.67844513029608</v>
+        <v>38.57928609010036</v>
       </c>
       <c r="F95">
-        <v>37.7217342566026</v>
+        <v>36.37434358621181</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>38.56459830210208</v>
+        <v>38.28664779559721</v>
       </c>
       <c r="C96">
-        <v>38.56655391104653</v>
+        <v>38.60274598333793</v>
       </c>
       <c r="D96">
-        <v>36.07930140846611</v>
+        <v>38.47075729413504</v>
       </c>
       <c r="E96">
-        <v>38.54606898662632</v>
+        <v>38.45165762610358</v>
       </c>
       <c r="F96">
-        <v>37.62342145800975</v>
+        <v>36.30541775298907</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>38.43002156501235</v>
+        <v>38.15956580896341</v>
       </c>
       <c r="C97">
-        <v>38.43097165810141</v>
+        <v>38.4716429006943</v>
       </c>
       <c r="D97">
-        <v>36.02031853230297</v>
+        <v>38.33634046681534</v>
       </c>
       <c r="E97">
-        <v>38.41139453551197</v>
+        <v>38.32092504045792</v>
       </c>
       <c r="F97">
-        <v>37.52014505275906</v>
+        <v>36.23293646356564</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>38.29366442125681</v>
+        <v>38.0300710253515</v>
       </c>
       <c r="C98">
-        <v>38.29375984499356</v>
+        <v>38.3382516645319</v>
       </c>
       <c r="D98">
-        <v>35.95782739249893</v>
+        <v>38.20009688743589</v>
       </c>
       <c r="E98">
-        <v>38.27497215288501</v>
+        <v>38.18777428959218</v>
       </c>
       <c r="F98">
-        <v>37.41252909841172</v>
+        <v>36.15707550747231</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>38.15595652452823</v>
+        <v>37.898604110515</v>
       </c>
       <c r="C99">
-        <v>38.15533037134824</v>
+        <v>38.20306922565354</v>
       </c>
       <c r="D99">
-        <v>35.89195940775748</v>
+        <v>38.06247414547089</v>
       </c>
       <c r="E99">
-        <v>38.13722436150418</v>
+        <v>38.05274294674717</v>
       </c>
       <c r="F99">
-        <v>37.30112278793608</v>
+        <v>36.07800236765378</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>38.01722849127155</v>
+        <v>37.76552654363113</v>
       </c>
       <c r="C100">
-        <v>38.01599623978069</v>
+        <v>38.06648787925271</v>
       </c>
       <c r="D100">
-        <v>35.82284088849325</v>
+        <v>37.92381511175174</v>
       </c>
       <c r="E100">
-        <v>37.99847594370423</v>
+        <v>37.91625228825756</v>
       </c>
       <c r="F100">
-        <v>37.18640769323807</v>
+        <v>35.99587653506016</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>37.87773536676856</v>
+        <v>37.63113501782759</v>
       </c>
       <c r="C101">
-        <v>37.87599573010882</v>
+        <v>37.92881758413317</v>
       </c>
       <c r="D101">
-        <v>35.75059319575604</v>
+        <v>37.78438265854467</v>
       </c>
       <c r="E101">
-        <v>37.85897707446065</v>
+        <v>37.77863296585758</v>
       </c>
       <c r="F101">
-        <v>37.06880497770804</v>
+        <v>35.91084982663832</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>37.73767420203598</v>
+        <v>37.49567332827171</v>
       </c>
       <c r="C102">
-        <v>37.73551074291563</v>
+        <v>37.79030366757669</v>
       </c>
       <c r="D102">
-        <v>35.67533291767339</v>
+        <v>37.64437870310156</v>
       </c>
       <c r="E102">
-        <v>37.71892092413853</v>
+        <v>37.64014472481132</v>
       </c>
       <c r="F102">
-        <v>36.94868234847111</v>
+        <v>35.82306670383386</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>37.59719750401177</v>
+        <v>37.35934208962684</v>
       </c>
       <c r="C103">
-        <v>37.59468065135295</v>
+        <v>37.65114055984198</v>
       </c>
       <c r="D103">
-        <v>35.59717203074985</v>
+        <v>37.5039589072244</v>
       </c>
       <c r="E103">
-        <v>37.5784570414887</v>
+        <v>37.50099207070543</v>
       </c>
       <c r="F103">
-        <v>36.82636054662559</v>
+        <v>35.73266458262253</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>37.45642361753192</v>
+        <v>37.22230665312189</v>
       </c>
       <c r="C104">
-        <v>37.45361249705282</v>
+        <v>37.5114826693524</v>
       </c>
       <c r="D104">
-        <v>35.51621808537784</v>
+        <v>37.36324351539522</v>
       </c>
       <c r="E104">
-        <v>37.43770143224763</v>
+        <v>37.36133638251654</v>
       </c>
       <c r="F104">
-        <v>36.70211921205186</v>
+        <v>35.63977416331711</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>37.31544469861118</v>
+        <v>37.08470355486158</v>
       </c>
       <c r="C105">
-        <v>37.31238871524298</v>
+        <v>37.37145293355081</v>
       </c>
       <c r="D105">
-        <v>35.43257437993279</v>
+        <v>37.2223256564824</v>
       </c>
       <c r="E105">
-        <v>37.29674455424011</v>
+        <v>37.22130525086392</v>
       </c>
       <c r="F105">
-        <v>36.57620217850425</v>
+        <v>35.54451972541445</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>37.17433271725786</v>
+        <v>36.94664578934652</v>
       </c>
       <c r="C106">
-        <v>37.17107307028584</v>
+        <v>37.23114945373967</v>
       </c>
       <c r="D106">
-        <v>35.34634012652715</v>
+        <v>37.0812777469997</v>
       </c>
       <c r="E106">
-        <v>37.15565723181893</v>
+        <v>37.08099986655264</v>
       </c>
       <c r="F106">
-        <v>36.4488220376479</v>
+        <v>35.44701944363781</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>37.0331439955434</v>
+        <v>36.80822706631179</v>
       </c>
       <c r="C107">
-        <v>37.02971500504599</v>
+        <v>37.09065068652049</v>
       </c>
       <c r="D107">
-        <v>35.25761062949181</v>
+        <v>36.9401562307519</v>
       </c>
       <c r="E107">
-        <v>37.01449488345423</v>
+        <v>36.94050064038484</v>
       </c>
       <c r="F107">
-        <v>36.32016426394896</v>
+        <v>35.34738566343275</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>36.89192274359267</v>
+        <v>36.66952527248323</v>
       </c>
       <c r="C108">
-        <v>36.88835297987951</v>
+        <v>36.95001952118145</v>
       </c>
       <c r="D108">
-        <v>35.16647744444172</v>
+        <v>36.79900523100405</v>
       </c>
       <c r="E108">
-        <v>36.87330094902249</v>
+        <v>36.7998716640282</v>
       </c>
       <c r="F108">
-        <v>36.19039083438494</v>
+        <v>35.24572519736248</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>36.75070377245852</v>
+        <v>36.53060528787621</v>
       </c>
       <c r="C109">
-        <v>36.747017004503</v>
+        <v>36.80930652854664</v>
       </c>
       <c r="D109">
-        <v>35.07302855082868</v>
+        <v>36.65785936344948</v>
       </c>
       <c r="E109">
-        <v>36.73210967408497</v>
+        <v>36.65916409290146</v>
       </c>
       <c r="F109">
-        <v>36.0596433620433</v>
+        <v>35.14213959004148</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>36.60951457047896</v>
+        <v>36.39152129703706</v>
       </c>
       <c r="C110">
-        <v>36.6057305784439</v>
+        <v>36.66855244883157</v>
       </c>
       <c r="D110">
-        <v>34.97734850804793</v>
+        <v>36.51674581815413</v>
       </c>
       <c r="E110">
-        <v>36.59094820375378</v>
+        <v>36.51841889830355</v>
       </c>
       <c r="F110">
-        <v>35.92804580353883</v>
+        <v>35.03672537483614</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>36.46837689306096</v>
+        <v>36.25231862676237</v>
       </c>
       <c r="C111">
-        <v>36.46451210845026</v>
+        <v>36.52779018581861</v>
       </c>
       <c r="D111">
-        <v>34.87951861863148</v>
+        <v>36.37568603239715</v>
       </c>
       <c r="E111">
-        <v>36.44983807310654</v>
+        <v>36.37766908847121</v>
       </c>
       <c r="F111">
-        <v>35.79570679937904</v>
+        <v>34.92957434539166</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>36.32730801664888</v>
+        <v>36.11303529128359</v>
       </c>
       <c r="C112">
-        <v>36.32337608537031</v>
+        <v>36.38704636757925</v>
       </c>
       <c r="D112">
-        <v>34.77961708919571</v>
+        <v>36.23469702722163</v>
       </c>
       <c r="E112">
-        <v>36.30879638183325</v>
+        <v>36.23694128054463</v>
       </c>
       <c r="F112">
-        <v>35.66272169810641</v>
+        <v>34.82077378347832</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>36.18632167084227</v>
+        <v>35.97370328991849</v>
       </c>
       <c r="C113">
-        <v>36.18233399748438</v>
+        <v>36.24634258157725</v>
       </c>
       <c r="D113">
-        <v>34.6777191820189</v>
+        <v>36.09379234423693</v>
       </c>
       <c r="E113">
-        <v>36.16783672578487</v>
+        <v>36.09625690986253</v>
       </c>
       <c r="F113">
-        <v>35.52917430563095</v>
+        <v>34.71040668971597</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>36.04542879079196</v>
+        <v>35.83434962175263</v>
       </c>
       <c r="C114">
-        <v>36.0413949597752</v>
+        <v>36.10569636977941</v>
       </c>
       <c r="D114">
-        <v>34.57389736846273</v>
+        <v>35.95298274744466</v>
       </c>
       <c r="E114">
-        <v>36.02696998334829</v>
+        <v>35.95563326086896</v>
       </c>
       <c r="F114">
-        <v>35.39513839536846</v>
+        <v>34.59855202678199</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>35.9046380799936</v>
+        <v>35.69499716503493</v>
       </c>
       <c r="C115">
-        <v>35.90056619853353</v>
+        <v>35.96512212357052</v>
       </c>
       <c r="D115">
-        <v>34.46822148532212</v>
+        <v>35.81227677387128</v>
       </c>
       <c r="E115">
-        <v>35.88620485014972</v>
+        <v>35.81508433663348</v>
       </c>
       <c r="F115">
-        <v>35.26067902588073</v>
+        <v>34.48528490926936</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>35.76395665650701</v>
+        <v>35.55566523303257</v>
       </c>
       <c r="C116">
-        <v>35.75985342416122</v>
+        <v>35.82463161500939</v>
       </c>
       <c r="D116">
-        <v>34.3607588782704</v>
+        <v>35.67168120838079</v>
       </c>
       <c r="E116">
-        <v>35.74554840333161</v>
+        <v>35.67462153706264</v>
       </c>
       <c r="F116">
-        <v>35.12585364005081</v>
+        <v>34.37067681226651</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>35.62339019606554</v>
+        <v>35.41637015806039</v>
       </c>
       <c r="C117">
-        <v>35.61926115672115</v>
+        <v>35.68423442167273</v>
       </c>
       <c r="D117">
-        <v>34.25157455640527</v>
+        <v>35.53120148265912</v>
       </c>
       <c r="E117">
-        <v>35.60500638647153</v>
+        <v>35.53425416378193</v>
       </c>
       <c r="F117">
-        <v>34.99071304525103</v>
+        <v>34.25479578355834</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>35.48294322753019</v>
+        <v>35.27712583994244</v>
       </c>
       <c r="C118">
-        <v>35.47879299395668</v>
+        <v>35.54393837349544</v>
       </c>
       <c r="D118">
-        <v>34.14073134247894</v>
+        <v>35.39084197639615</v>
       </c>
       <c r="E118">
-        <v>35.4645833281565</v>
+        <v>35.39398980470541</v>
       </c>
       <c r="F118">
-        <v>34.85530225136622</v>
+        <v>34.13770660330367</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>35.34261938869058</v>
+        <v>35.13794413581797</v>
       </c>
       <c r="C119">
-        <v>35.33845182716557</v>
+        <v>35.40374989399555</v>
       </c>
       <c r="D119">
-        <v>34.02829002410159</v>
+        <v>35.2506062125578</v>
       </c>
       <c r="E119">
-        <v>35.32428288764329</v>
+        <v>35.25383464922916</v>
       </c>
       <c r="F119">
-        <v>34.71966119594074</v>
+        <v>34.0194709720591</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>35.20242159499647</v>
+        <v>34.99883517943311</v>
       </c>
       <c r="C120">
-        <v>35.1982399705709</v>
+        <v>35.26367426689117</v>
       </c>
       <c r="D120">
-        <v>33.91430951202958</v>
+        <v>35.11049701620738</v>
       </c>
       <c r="E120">
-        <v>35.18410800831329</v>
+        <v>35.11379375495927</v>
       </c>
       <c r="F120">
-        <v>34.58382537185965</v>
+        <v>33.90014769432509</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>35.06235218430412</v>
+        <v>34.85980766726308</v>
       </c>
       <c r="C121">
-        <v>35.05815926979873</v>
+        <v>35.12371586580706</v>
       </c>
       <c r="D121">
-        <v>33.79884700190284</v>
+        <v>34.97051664920158</v>
       </c>
       <c r="E121">
-        <v>35.04406105865886</v>
+        <v>34.97387122421776</v>
       </c>
       <c r="F121">
-        <v>34.44782637123321</v>
+        <v>33.77979281704248</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>34.92241305589161</v>
+        <v>34.72086903192441</v>
       </c>
       <c r="C122">
-        <v>34.91821119132382</v>
+        <v>34.98387829966793</v>
       </c>
       <c r="D122">
-        <v>33.68195814268506</v>
+        <v>34.83066690740885</v>
       </c>
       <c r="E122">
-        <v>34.90414397062346</v>
+        <v>34.83407048908187</v>
       </c>
       <c r="F122">
-        <v>34.31169235734727</v>
+        <v>33.65845979876718</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>34.78260574134542</v>
+        <v>34.58202565220857</v>
       </c>
       <c r="C123">
-        <v>34.77839688434413</v>
+        <v>34.84416453666903</v>
       </c>
       <c r="D123">
-        <v>33.56369721470902</v>
+        <v>34.69094926196216</v>
       </c>
       <c r="E123">
-        <v>34.76435830704541</v>
+        <v>34.69439427256972</v>
       </c>
       <c r="F123">
-        <v>34.17544847404434</v>
+        <v>33.53619966442949</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>34.64293149242796</v>
+        <v>34.4432830141093</v>
       </c>
       <c r="C124">
-        <v>34.6387172842875</v>
+        <v>34.70457702062338</v>
       </c>
       <c r="D124">
-        <v>33.44411732166184</v>
+        <v>34.55136485262082</v>
       </c>
       <c r="E124">
-        <v>34.62470535775609</v>
+        <v>34.55484498190155</v>
       </c>
       <c r="F124">
-        <v>34.03911720507242</v>
+        <v>33.41306113260698</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>34.50339129544745</v>
+        <v>34.30464581133661</v>
       </c>
       <c r="C125">
-        <v>34.49917307961675</v>
+        <v>34.56511775356281</v>
       </c>
       <c r="D125">
-        <v>33.32327059608699</v>
+        <v>34.41191467115166</v>
       </c>
       <c r="E125">
-        <v>34.48518613686799</v>
+        <v>34.41542446421203</v>
       </c>
       <c r="F125">
-        <v>33.9027186844303</v>
+        <v>33.28909077368507</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>34.36398593583328</v>
+        <v>34.16611816343255</v>
       </c>
       <c r="C126">
-        <v>34.35976490779782</v>
+        <v>34.42578841212592</v>
       </c>
       <c r="D126">
-        <v>33.20120844143539</v>
+        <v>34.2725994469611</v>
       </c>
       <c r="E126">
-        <v>34.34580145923704</v>
+        <v>34.27613433296981</v>
       </c>
       <c r="F126">
-        <v>33.76627094717979</v>
+        <v>33.16433312536137</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>34.22471602536859</v>
+        <v>34.02770352460843</v>
       </c>
       <c r="C127">
-        <v>34.22049316426097</v>
+        <v>34.28659035224879</v>
       </c>
       <c r="D127">
-        <v>33.07798179179167</v>
+        <v>34.1334198128995</v>
       </c>
       <c r="E127">
-        <v>34.20655196546111</v>
+        <v>34.13697585830266</v>
       </c>
       <c r="F127">
-        <v>33.62979021290803</v>
+        <v>33.03883083305234</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>34.08558207004577</v>
+        <v>33.88940506817204</v>
       </c>
       <c r="C128">
-        <v>34.08135826926667</v>
+        <v>34.14752474341051</v>
       </c>
       <c r="D128">
-        <v>32.95364141162199</v>
+        <v>33.9943762308751</v>
       </c>
       <c r="E128">
-        <v>34.06743817809404</v>
+        <v>33.99795005659623</v>
       </c>
       <c r="F128">
-        <v>33.49329100482397</v>
+        <v>32.91262478192081</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>33.94658442215356</v>
+        <v>33.75122535414415</v>
       </c>
       <c r="C129">
-        <v>33.94236043910952</v>
+        <v>34.00859251385136</v>
       </c>
       <c r="D129">
-        <v>32.82823824967576</v>
+        <v>33.85546905966868</v>
       </c>
       <c r="E129">
-        <v>33.92846048784232</v>
+        <v>33.85905777730025</v>
       </c>
       <c r="F129">
-        <v>33.35678653930808</v>
+        <v>32.78575422383246</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>33.80772341305875</v>
+        <v>33.61316680123686</v>
       </c>
       <c r="C130">
-        <v>33.80349990316957</v>
+        <v>33.86979444601337</v>
       </c>
       <c r="D130">
-        <v>32.701823855334</v>
+        <v>33.71669857378807</v>
       </c>
       <c r="E130">
-        <v>33.78961922357799</v>
+        <v>33.72029968553573</v>
       </c>
       <c r="F130">
-        <v>33.22028860367949</v>
+        <v>32.65825690329724</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>33.66899926406943</v>
+        <v>33.47523133202046</v>
       </c>
       <c r="C131">
-        <v>33.66477677025991</v>
+        <v>33.73113117190691</v>
       </c>
       <c r="D131">
-        <v>32.57445087433091</v>
+        <v>33.57806496794647</v>
       </c>
       <c r="E131">
-        <v>33.65091464503591</v>
+        <v>33.58167633270776</v>
       </c>
       <c r="F131">
-        <v>33.08380795692675</v>
+        <v>32.53016918561992</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>33.53041213993524</v>
+        <v>33.33742073433996</v>
       </c>
       <c r="C132">
-        <v>33.52619113156561</v>
+        <v>33.59260318549844</v>
       </c>
       <c r="D132">
-        <v>32.44617364001915</v>
+        <v>33.43956838853388</v>
       </c>
       <c r="E132">
-        <v>33.51234691645287</v>
+        <v>33.44318816362669</v>
       </c>
       <c r="F132">
-        <v>32.94735424038292</v>
+        <v>32.40152618921066</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>33.39196219614055</v>
+        <v>33.19973647237273</v>
       </c>
       <c r="C133">
-        <v>33.38774302744861</v>
+        <v>33.45421090063236</v>
       </c>
       <c r="D133">
-        <v>32.31704889525961</v>
+        <v>33.3012089310613</v>
       </c>
       <c r="E133">
-        <v>33.37391621664477</v>
+        <v>33.30483554040589</v>
       </c>
       <c r="F133">
-        <v>32.81093618970108</v>
+        <v>32.27236192592621</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>33.25364947310948</v>
+        <v>33.06217986029051</v>
       </c>
       <c r="C134">
-        <v>33.2494324731595</v>
+        <v>33.31595463108561</v>
       </c>
       <c r="D134">
-        <v>32.18713663732037</v>
+        <v>33.16298666634327</v>
       </c>
       <c r="E134">
-        <v>33.23562259687362</v>
+        <v>33.16661875417392</v>
       </c>
       <c r="F134">
-        <v>32.67456173374656</v>
+        <v>32.14270944740676</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>33.11547404686625</v>
+        <v>32.9247520219499</v>
       </c>
       <c r="C135">
-        <v>33.11125946022837</v>
+        <v>33.17783463394649</v>
       </c>
       <c r="D135">
-        <v>32.05650107339899</v>
+        <v>33.02490162178184</v>
       </c>
       <c r="E135">
-        <v>33.09746614514811</v>
+        <v>33.02853801708181</v>
       </c>
       <c r="F135">
-        <v>32.53823803485581</v>
+        <v>32.0126010028758</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>32.97743590314897</v>
+        <v>32.78745394578067</v>
       </c>
       <c r="C136">
-        <v>32.97322396241762</v>
+        <v>33.03985110250585</v>
       </c>
       <c r="D136">
-        <v>31.92521166080823</v>
+        <v>32.88695380992448</v>
       </c>
       <c r="E136">
-        <v>32.9594468603116</v>
+        <v>32.89059350397657</v>
       </c>
       <c r="F136">
-        <v>32.40197162372134</v>
+        <v>31.88206821332618</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>32.83953503699799</v>
+        <v>32.65028649284179</v>
       </c>
       <c r="C137">
-        <v>32.83532593489751</v>
+        <v>32.90200419302256</v>
       </c>
       <c r="D137">
-        <v>31.79334409626349</v>
+        <v>32.74914321030773</v>
       </c>
       <c r="E137">
-        <v>32.82156474715187</v>
+        <v>32.75278532654287</v>
       </c>
       <c r="F137">
-        <v>32.26576842810793</v>
+        <v>31.75114226814899</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>32.70177140837527</v>
+        <v>32.51325041650465</v>
       </c>
       <c r="C138">
-        <v>32.69756531998436</v>
+        <v>32.76429401186855</v>
       </c>
       <c r="D138">
-        <v>31.66098085005039</v>
+        <v>32.61146978773941</v>
       </c>
       <c r="E138">
-        <v>32.68381977501713</v>
+        <v>32.61511356447146</v>
       </c>
       <c r="F138">
-        <v>32.12963384537031</v>
+        <v>31.61985414735627</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>32.56414496702692</v>
+        <v>32.37634637125451</v>
       </c>
       <c r="C139">
-        <v>32.55994204537415</v>
+        <v>32.62672063744704</v>
       </c>
       <c r="D139">
-        <v>31.52821081741431</v>
+        <v>32.47393348790875</v>
       </c>
       <c r="E139">
-        <v>32.54621190235036</v>
+        <v>32.47757826374769</v>
       </c>
       <c r="F139">
-        <v>31.99357280803871</v>
+        <v>31.48823488157028</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>32.42665564602991</v>
+        <v>32.23957492447236</v>
       </c>
       <c r="C140">
-        <v>32.42245602847749</v>
+        <v>32.48928411306963</v>
       </c>
       <c r="D140">
-        <v>31.39512731727938</v>
+        <v>32.33653424437485</v>
       </c>
       <c r="E140">
-        <v>32.40874106983043</v>
+        <v>32.34017943968871</v>
       </c>
       <c r="F140">
-        <v>31.85758978976946</v>
+        <v>31.35631584917085</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>32.2893033761983</v>
+        <v>32.1029365671933</v>
       </c>
       <c r="C141">
-        <v>32.28510717691338</v>
+        <v>32.35198445680496</v>
       </c>
       <c r="D141">
-        <v>31.26182396107746</v>
+        <v>32.19927197961234</v>
       </c>
       <c r="E141">
-        <v>32.27140721420061</v>
+        <v>32.20291708937456</v>
       </c>
       <c r="F141">
-        <v>31.72168889584516</v>
+        <v>31.2241291152746</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>32.15208807314668</v>
+        <v>31.96643171989746</v>
       </c>
       <c r="C142">
-        <v>32.14789539179624</v>
+        <v>32.21482166552783</v>
       </c>
       <c r="D142">
-        <v>31.12838875826449</v>
+        <v>32.06214660498871</v>
       </c>
       <c r="E142">
-        <v>32.13421025745652</v>
+        <v>32.06579120531995</v>
       </c>
       <c r="F142">
-        <v>31.58587385711533</v>
+        <v>31.09170781021605</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>32.01500964812686</v>
+        <v>31.83006074645553</v>
       </c>
       <c r="C143">
-        <v>32.01082056811252</v>
+        <v>32.07779571645827</v>
       </c>
       <c r="D143">
-        <v>30.99489813773951</v>
+        <v>31.92515803034547</v>
       </c>
       <c r="E143">
-        <v>31.9971501155331</v>
+        <v>31.92880172094091</v>
       </c>
       <c r="F143">
-        <v>31.45014809233629</v>
+        <v>30.95908651712739</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>31.87806800816648</v>
+        <v>31.69382395555481</v>
       </c>
       <c r="C144">
-        <v>31.8738825962507</v>
+        <v>31.94090657302568</v>
       </c>
       <c r="D144">
-        <v>30.86141306896917</v>
+        <v>31.78830615649862</v>
       </c>
       <c r="E144">
-        <v>31.86022669980413</v>
+        <v>31.7919486087275</v>
       </c>
       <c r="F144">
-        <v>31.31451472883738</v>
+        <v>30.82630159906696</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>31.74126304690943</v>
+        <v>31.55772161492608</v>
       </c>
       <c r="C145">
-        <v>31.73708136424996</v>
+        <v>31.8041541843705</v>
       </c>
       <c r="D145">
-        <v>30.72797843993493</v>
+        <v>31.6515908725852</v>
       </c>
       <c r="E145">
-        <v>31.72343990839883</v>
+        <v>31.65523182128887</v>
       </c>
       <c r="F145">
-        <v>31.17897660743388</v>
+        <v>30.69339133144429</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>31.60459466042084</v>
+        <v>31.42175393887462</v>
       </c>
       <c r="C146">
-        <v>31.60041675487383</v>
+        <v>31.66753848922671</v>
       </c>
       <c r="D146">
-        <v>30.59462517183708</v>
+        <v>31.51501208080875</v>
       </c>
       <c r="E146">
-        <v>31.58678964067755</v>
+        <v>31.51865125289427</v>
       </c>
       <c r="F146">
-        <v>31.04353637045326</v>
+        <v>30.56039562259052</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>31.46806273421035</v>
+        <v>31.28592112467029</v>
       </c>
       <c r="C147">
-        <v>31.46388865057012</v>
+        <v>31.53105941334779</v>
       </c>
       <c r="D147">
-        <v>30.46137350217931</v>
+        <v>31.37856966346603</v>
       </c>
       <c r="E147">
-        <v>31.45027578568737</v>
+        <v>31.38220685177841</v>
       </c>
       <c r="F147">
-        <v>30.90819641895879</v>
+        <v>30.42735505528769</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>31.33166715271395</v>
+        <v>31.1502233434435</v>
       </c>
       <c r="C148">
-        <v>31.327496928908</v>
+        <v>31.39471688403115</v>
       </c>
       <c r="D148">
-        <v>30.32823622026654</v>
+        <v>31.24226350299401</v>
       </c>
       <c r="E148">
-        <v>31.31389823098702</v>
+        <v>31.24589853221086</v>
       </c>
       <c r="F148">
-        <v>30.77295893565276</v>
+        <v>30.29430911321987</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>31.19540779741234</v>
+        <v>31.01466069168774</v>
       </c>
       <c r="C149">
-        <v>31.19124146696941</v>
+        <v>31.25851080903864</v>
       </c>
       <c r="D149">
-        <v>30.19522123421465</v>
+        <v>31.1060934906728</v>
       </c>
       <c r="E149">
-        <v>31.17765686063067</v>
+        <v>31.10972618258987</v>
       </c>
       <c r="F149">
-        <v>30.63782602280546</v>
+        <v>30.16129384049447</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>31.05928454660916</v>
+        <v>30.87923330482108</v>
       </c>
       <c r="C150">
-        <v>31.0551221389511</v>
+        <v>31.1224410975988</v>
       </c>
       <c r="D150">
-        <v>30.06233339496128</v>
+        <v>30.97005949612249</v>
       </c>
       <c r="E150">
-        <v>31.04155155560813</v>
+        <v>30.97368971591637</v>
       </c>
       <c r="F150">
-        <v>30.50279946130977</v>
+        <v>30.02833967773741</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>30.92329727727309</v>
+        <v>30.74394128816046</v>
       </c>
       <c r="C151">
-        <v>30.91913881803538</v>
+        <v>30.98650766406596</v>
       </c>
       <c r="D151">
-        <v>29.92957564937561</v>
+        <v>30.83416140056978</v>
       </c>
       <c r="E151">
-        <v>30.90558219501026</v>
+        <v>30.83778902321362</v>
       </c>
       <c r="F151">
-        <v>30.36788102579521</v>
+        <v>29.89547028805948</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>30.78744586562178</v>
+        <v>30.60878466059264</v>
       </c>
       <c r="C152">
-        <v>30.78329137620444</v>
+        <v>30.85071039183433</v>
       </c>
       <c r="D152">
-        <v>29.7969498183837</v>
+        <v>30.6983990803759</v>
       </c>
       <c r="E152">
-        <v>30.76974865713682</v>
+        <v>30.70202399169173</v>
       </c>
       <c r="F152">
-        <v>30.23307231337364</v>
+        <v>29.76270269589966</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>30.65173018549208</v>
+        <v>30.47376350492451</v>
       </c>
       <c r="C153">
-        <v>30.64757968433818</v>
+        <v>30.71504918647866</v>
       </c>
       <c r="D153">
-        <v>29.6644570350602</v>
+        <v>30.56277240638993</v>
       </c>
       <c r="E153">
-        <v>30.63405081731273</v>
+        <v>30.566394508513</v>
       </c>
       <c r="F153">
-        <v>30.09837472352703</v>
+        <v>29.63004838256979</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>30.5161501104503</v>
+        <v>30.33887786801361</v>
       </c>
       <c r="C154">
-        <v>30.51200361247157</v>
+        <v>30.57952394261571</v>
       </c>
       <c r="D154">
-        <v>29.53209803029474</v>
+        <v>30.427281251504</v>
       </c>
       <c r="E154">
-        <v>30.49848855098249</v>
+        <v>30.43090045739388</v>
       </c>
       <c r="F154">
-        <v>29.96378963392264</v>
+        <v>29.497514717503</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>30.38070551301236</v>
+        <v>30.2041277346965</v>
       </c>
       <c r="C155">
-        <v>30.37656303014819</v>
+        <v>30.44413454097469</v>
       </c>
       <c r="D155">
-        <v>29.39987328916382</v>
+        <v>30.29192548668759</v>
       </c>
       <c r="E155">
-        <v>30.36306173167867</v>
+        <v>30.29554171924123</v>
       </c>
       <c r="F155">
-        <v>29.82931825249744</v>
+        <v>29.36510626380442</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>30.24539626387746</v>
+        <v>30.06951313068102</v>
       </c>
       <c r="C156">
-        <v>30.24125780689768</v>
+        <v>30.30888087251946</v>
       </c>
       <c r="D156">
-        <v>29.26778315326833</v>
+        <v>30.15670498258372</v>
       </c>
       <c r="E156">
-        <v>30.2277702316193</v>
+        <v>30.16031817378937</v>
       </c>
       <c r="F156">
-        <v>29.69496170768494</v>
+        <v>29.23282577711225</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>30.11022223395493</v>
+        <v>29.9350340538788</v>
       </c>
       <c r="C157">
-        <v>30.10608781073073</v>
+        <v>30.17376282057102</v>
       </c>
       <c r="D157">
-        <v>29.13582787389123</v>
+        <v>30.02161960908501</v>
       </c>
       <c r="E157">
-        <v>30.09261392266778</v>
+        <v>30.02522969774746</v>
       </c>
       <c r="F157">
-        <v>29.5607210464999</v>
+        <v>29.10067489121262</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>29.97518329265058</v>
+        <v>29.80069047571106</v>
       </c>
       <c r="C158">
-        <v>29.97105291000107</v>
+        <v>30.03878026557152</v>
       </c>
       <c r="D158">
-        <v>29.00400764679542</v>
+        <v>29.88666923540379</v>
       </c>
       <c r="E158">
-        <v>29.95759267529268</v>
+        <v>29.89027617016293</v>
       </c>
       <c r="F158">
-        <v>29.42659721497769</v>
+        <v>28.96865455339476</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>29.84027930911074</v>
+        <v>29.66648237563348</v>
       </c>
       <c r="C159">
-        <v>29.83615297355704</v>
+        <v>29.90393308817335</v>
       </c>
       <c r="D159">
-        <v>28.8723226337247</v>
+        <v>29.75185373083332</v>
       </c>
       <c r="E159">
-        <v>29.82270635960055</v>
+        <v>29.75545746727089</v>
       </c>
       <c r="F159">
-        <v>29.29259110476967</v>
+        <v>28.8367653029493</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>29.70551015218782</v>
+        <v>29.53240971956233</v>
       </c>
       <c r="C160">
-        <v>29.70138786812664</v>
+        <v>29.76922116741613</v>
       </c>
       <c r="D160">
-        <v>28.74077297193637</v>
+        <v>29.61717296537986</v>
       </c>
       <c r="E160">
-        <v>29.68795484523472</v>
+        <v>29.620773461121</v>
       </c>
       <c r="F160">
-        <v>29.1587035257096</v>
+        <v>28.70500743566304</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>29.57087569018347</v>
+        <v>29.39847246472683</v>
       </c>
       <c r="C161">
-        <v>29.56675746164167</v>
+        <v>29.63464438139369</v>
       </c>
       <c r="D161">
-        <v>28.60935878194066</v>
+        <v>29.48262680616109</v>
       </c>
       <c r="E161">
-        <v>29.55333800131062</v>
+        <v>29.48622402860153</v>
       </c>
       <c r="F161">
-        <v>29.02493522655744</v>
+        <v>28.57338110274884</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>29.43637579130936</v>
+        <v>29.26467056499241</v>
       </c>
       <c r="C162">
-        <v>29.43226162195844</v>
+        <v>29.50020260765128</v>
       </c>
       <c r="D162">
-        <v>28.47808017254712</v>
+        <v>29.34821512251184</v>
       </c>
       <c r="E162">
-        <v>29.41885569671532</v>
+        <v>29.35180904169211</v>
       </c>
       <c r="F162">
-        <v>28.89128691204682</v>
+        <v>28.44188636969572</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>29.30201032370929</v>
+        <v>29.13100396823083</v>
       </c>
       <c r="C163">
-        <v>29.29790021560768</v>
+        <v>29.36589572201646</v>
       </c>
       <c r="D163">
-        <v>28.3469372427904</v>
+        <v>29.21393778317001</v>
       </c>
       <c r="E163">
-        <v>29.28450780024177</v>
+        <v>29.2175283714788</v>
       </c>
       <c r="F163">
-        <v>28.75775920383155</v>
+        <v>28.31052325050181</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>29.16777915516508</v>
+        <v>28.99747261394124</v>
       </c>
       <c r="C164">
-        <v>29.16367311006979</v>
+        <v>29.23172360161327</v>
       </c>
       <c r="D164">
-        <v>28.21593008336932</v>
+        <v>29.07979465508159</v>
       </c>
       <c r="E164">
-        <v>29.15029418014371</v>
+        <v>29.0833818901835</v>
       </c>
       <c r="F164">
-        <v>28.6243527028748</v>
+        <v>28.17929172813848</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>29.03368215355485</v>
+        <v>28.86407644366725</v>
       </c>
       <c r="C165">
-        <v>29.02958017246787</v>
+        <v>29.09768612232869</v>
       </c>
       <c r="D165">
-        <v>28.08505877818881</v>
+        <v>28.94578560655207</v>
       </c>
       <c r="E165">
-        <v>29.01621470491057</v>
+        <v>28.94936946811455</v>
       </c>
       <c r="F165">
-        <v>28.49106795114496</v>
+        <v>28.04819176612274</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>28.89971918658888</v>
+        <v>28.73081539303937</v>
       </c>
       <c r="C166">
-        <v>28.8956212697187</v>
+        <v>28.96378315822987</v>
       </c>
       <c r="D166">
-        <v>27.95432340516918</v>
+        <v>28.81191050523844</v>
       </c>
       <c r="E166">
-        <v>28.88226924256712</v>
+        <v>28.81549097521325</v>
       </c>
       <c r="F166">
-        <v>28.35790543916319</v>
+        <v>27.91722331640153</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>28.7658901217958</v>
+        <v>28.59768938722426</v>
       </c>
       <c r="C167">
-        <v>28.76179626891592</v>
+        <v>28.8300145853208</v>
       </c>
       <c r="D167">
-        <v>27.8237240366544</v>
+        <v>28.67816921861891</v>
       </c>
       <c r="E167">
-        <v>28.74845766114973</v>
+        <v>28.68174628088896</v>
       </c>
       <c r="F167">
-        <v>28.22486563335991</v>
+        <v>27.7863863219829</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>28.63219482679233</v>
+        <v>28.46469835779007</v>
       </c>
       <c r="C168">
-        <v>28.62810503712794</v>
+        <v>28.69638027769886</v>
       </c>
       <c r="D168">
-        <v>27.69326073976284</v>
+        <v>28.54456161406664</v>
       </c>
       <c r="E168">
-        <v>28.6147798285869</v>
+        <v>28.54813525515402</v>
       </c>
       <c r="F168">
-        <v>28.09194894777111</v>
+        <v>27.65568072027114</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>28.49863316904234</v>
+        <v>28.33184222975189</v>
       </c>
       <c r="C169">
-        <v>28.4945474414505</v>
+        <v>28.56288010920039</v>
       </c>
       <c r="D169">
-        <v>27.56293357734016</v>
+        <v>28.41108755915199</v>
       </c>
       <c r="E169">
-        <v>28.48123561269171</v>
+        <v>28.41465776694578</v>
       </c>
       <c r="F169">
-        <v>27.95915577137365</v>
+        <v>27.52510644510872</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>28.365205016054</v>
+        <v>28.19912092032242</v>
       </c>
       <c r="C170">
-        <v>28.36112334911427</v>
+        <v>28.42951395400017</v>
       </c>
       <c r="D170">
-        <v>27.4327426077198</v>
+        <v>28.27774692146768</v>
       </c>
       <c r="E170">
-        <v>28.34782488127856</v>
+        <v>28.28131368536841</v>
       </c>
       <c r="F170">
-        <v>27.82648645920547</v>
+        <v>27.39466342684158</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>28.23191023541153</v>
+        <v>28.06653435053435</v>
       </c>
       <c r="C171">
-        <v>28.22783262738567</v>
+        <v>28.29628168569949</v>
       </c>
       <c r="D171">
-        <v>27.30268788507193</v>
+        <v>28.14453956852531</v>
       </c>
       <c r="E171">
-        <v>28.21454750216134</v>
+        <v>28.14810287946021</v>
       </c>
       <c r="F171">
-        <v>27.6939413329421</v>
+        <v>27.26435159305879</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>28.09874869463255</v>
+        <v>27.93408243678316</v>
       </c>
       <c r="C172">
-        <v>28.09467514349294</v>
+        <v>28.16318317778693</v>
       </c>
       <c r="D172">
-        <v>27.17276945955171</v>
+        <v>28.01146536793093</v>
       </c>
       <c r="E172">
-        <v>28.0814033431492</v>
+        <v>28.01502521851619</v>
       </c>
       <c r="F172">
-        <v>27.56152069293474</v>
+        <v>27.13417086922526</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>27.96572026129045</v>
+        <v>27.80176509206536</v>
       </c>
       <c r="C173">
-        <v>27.9616507649718</v>
+        <v>28.030218303651</v>
       </c>
       <c r="D173">
-        <v>27.04298737867177</v>
+        <v>27.87852418748565</v>
       </c>
       <c r="E173">
-        <v>27.94839227209535</v>
+        <v>27.88208057130714</v>
       </c>
       <c r="F173">
-        <v>27.42922480877462</v>
+        <v>27.00412117888674</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>27.83282480312389</v>
+        <v>27.66958222910966</v>
       </c>
       <c r="C174">
-        <v>27.82875935931406</v>
+        <v>27.89738693690739</v>
       </c>
       <c r="D174">
-        <v>26.91334168611571</v>
+        <v>27.74571589509172</v>
       </c>
       <c r="E174">
-        <v>27.81551415692229</v>
+        <v>27.74926880652509</v>
       </c>
       <c r="F174">
-        <v>27.2970539291888</v>
+        <v>26.87420244383953</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>27.7000621878456</v>
+        <v>27.53753375854808</v>
       </c>
       <c r="C175">
-        <v>27.69600079401117</v>
+        <v>27.76468895096285</v>
       </c>
       <c r="D175">
-        <v>26.78383242247626</v>
+        <v>27.61304035838459</v>
       </c>
       <c r="E175">
-        <v>27.6827688655462</v>
+        <v>27.61658979343487</v>
       </c>
       <c r="F175">
-        <v>27.16500828271837</v>
+        <v>26.74441458414315</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>27.56743228329358</v>
+        <v>27.405619589754</v>
       </c>
       <c r="C176">
-        <v>27.56337493683477</v>
+        <v>27.63212421931626</v>
       </c>
       <c r="D176">
-        <v>26.65445962584345</v>
+        <v>27.48049744549116</v>
       </c>
       <c r="E176">
-        <v>27.55015626601906</v>
+        <v>27.48404340046602</v>
       </c>
       <c r="F176">
-        <v>27.03308807090633</v>
+        <v>26.6147575185574</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>27.43493495734538</v>
+        <v>27.27383963095236</v>
       </c>
       <c r="C177">
-        <v>27.43088165553968</v>
+        <v>27.49969261551733</v>
       </c>
       <c r="D177">
-        <v>26.52522333140993</v>
+        <v>27.34808702445428</v>
       </c>
       <c r="E177">
-        <v>27.41767622633044</v>
+        <v>27.35162949643053</v>
       </c>
       <c r="F177">
-        <v>26.90129348337317</v>
+        <v>26.48523116451723</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>27.30257007800145</v>
+        <v>27.14219378924364</v>
       </c>
       <c r="C178">
-        <v>27.29852081796642</v>
+        <v>27.36739401339281</v>
       </c>
       <c r="D178">
-        <v>26.39612357230708</v>
+        <v>27.21580896325601</v>
       </c>
       <c r="E178">
-        <v>27.28532861466704</v>
+        <v>27.21934795010552</v>
       </c>
       <c r="F178">
-        <v>26.76962468762569</v>
+        <v>26.35583543815933</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>27.17033751341504</v>
+        <v>27.01068197046624</v>
       </c>
       <c r="C179">
-        <v>27.1662922921095</v>
+        <v>27.23522828651436</v>
       </c>
       <c r="D179">
-        <v>26.26716037912141</v>
+        <v>27.08366313013471</v>
       </c>
       <c r="E179">
-        <v>27.15311329930665</v>
+        <v>27.08719863020493</v>
       </c>
       <c r="F179">
-        <v>26.63808183393353</v>
+        <v>26.22657025447947</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>27.03823713178577</v>
+        <v>26.8793040806338</v>
       </c>
       <c r="C180">
-        <v>27.03419594605633</v>
+        <v>27.10319530872965</v>
       </c>
       <c r="D180">
-        <v>26.13833378039872</v>
+        <v>26.95164939336411</v>
       </c>
       <c r="E180">
-        <v>27.02103014848414</v>
+        <v>26.95518140542945</v>
       </c>
       <c r="F180">
-        <v>26.50666506002603</v>
+        <v>26.0974355274901</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>26.9062688013254</v>
+        <v>26.74806002445368</v>
       </c>
       <c r="C181">
-        <v>26.90223164800278</v>
+        <v>26.97129495408932</v>
       </c>
       <c r="D181">
-        <v>26.00964380306594</v>
+        <v>26.81976762130218</v>
       </c>
       <c r="E181">
-        <v>26.8890790306062</v>
+        <v>26.8232961445447</v>
       </c>
       <c r="F181">
-        <v>26.375374484628</v>
+        <v>25.96843117005582</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>26.77443239052016</v>
+        <v>26.61694970522194</v>
       </c>
       <c r="C182">
-        <v>26.77039926625678</v>
+        <v>26.83952709644135</v>
       </c>
       <c r="D182">
-        <v>25.88109047197126</v>
+        <v>26.68801768238387</v>
       </c>
       <c r="E182">
-        <v>26.75725981427158</v>
+        <v>26.69154271651418</v>
       </c>
       <c r="F182">
-        <v>26.24421021629463</v>
+        <v>25.83955709435531</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>26.64272776791787</v>
+        <v>26.48597302718015</v>
       </c>
       <c r="C183">
-        <v>26.63869866925988</v>
+        <v>26.70789160998794</v>
       </c>
       <c r="D183">
-        <v>25.7526738105172</v>
+        <v>26.55639944524016</v>
       </c>
       <c r="E183">
-        <v>26.62557236808389</v>
+        <v>26.55992099022346</v>
       </c>
       <c r="F183">
-        <v>26.1131723484031</v>
+        <v>25.71081321168396</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>26.51115480204892</v>
+        <v>26.3551298932953</v>
       </c>
       <c r="C184">
-        <v>26.50712972557214</v>
+        <v>26.57638836898076</v>
       </c>
       <c r="D184">
-        <v>25.62439384084551</v>
+        <v>26.42491277855316</v>
       </c>
       <c r="E184">
-        <v>26.49401656065426</v>
+        <v>26.42843083469836</v>
       </c>
       <c r="F184">
-        <v>25.98226096110165</v>
+        <v>25.58219943258322</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>26.37971336170158</v>
+        <v>26.22442020557153</v>
       </c>
       <c r="C185">
-        <v>26.37569230388415</v>
+        <v>26.44501724780553</v>
       </c>
       <c r="D185">
-        <v>25.49625058360594</v>
+        <v>26.29355755113981</v>
       </c>
       <c r="E185">
-        <v>26.36259226090965</v>
+        <v>26.29707211907621</v>
       </c>
       <c r="F185">
-        <v>25.85147612734703</v>
+        <v>25.45371566687293</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>26.24840331573802</v>
+        <v>26.0938438665977</v>
       </c>
       <c r="C186">
-        <v>26.24438627298244</v>
+        <v>26.31377812097829</v>
       </c>
       <c r="D186">
-        <v>25.3682440585129</v>
+        <v>26.16233363194003</v>
       </c>
       <c r="E186">
-        <v>26.23129933782035</v>
+        <v>26.16584471263904</v>
       </c>
       <c r="F186">
-        <v>25.72081791016364</v>
+        <v>25.32536182370262</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>26.11722453310972</v>
+        <v>25.96340077824173</v>
       </c>
       <c r="C187">
-        <v>26.11321150181552</v>
+        <v>26.18267086320292</v>
       </c>
       <c r="D187">
-        <v>25.24037428387788</v>
+        <v>26.03124089003753</v>
       </c>
       <c r="E187">
-        <v>26.10013766032305</v>
+        <v>26.03474848462835</v>
       </c>
       <c r="F187">
-        <v>25.59028635562591</v>
+        <v>25.1971378116622</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>25.98617688290492</v>
+        <v>25.83309084200523</v>
       </c>
       <c r="C188">
-        <v>25.98216785945255</v>
+        <v>26.05169534936335</v>
       </c>
       <c r="D188">
-        <v>25.11264127726501</v>
+        <v>25.90027919462601</v>
       </c>
       <c r="E188">
-        <v>25.9691070976406</v>
+        <v>25.90378330448441</v>
       </c>
       <c r="F188">
-        <v>25.45988150294926</v>
+        <v>25.06904353894515</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>25.85526023433664</v>
+        <v>25.70291395946969</v>
       </c>
       <c r="C189">
-        <v>25.85125521505201</v>
+        <v>25.92085145450049</v>
       </c>
       <c r="D189">
-        <v>24.9850450553975</v>
+        <v>25.76944841498766</v>
       </c>
       <c r="E189">
-        <v>25.83820751906266</v>
+        <v>25.77294904177472</v>
       </c>
       <c r="F189">
-        <v>25.32960339058402</v>
+        <v>24.9410789131477</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>25.72447445673693</v>
+        <v>25.57287003202155</v>
       </c>
       <c r="C190">
-        <v>25.72047343793886</v>
+        <v>25.79013905382599</v>
       </c>
       <c r="D190">
-        <v>24.85758563444978</v>
+        <v>25.63874842058522</v>
       </c>
       <c r="E190">
-        <v>25.70743879395561</v>
+        <v>25.64224556603238</v>
       </c>
       <c r="F190">
-        <v>25.19945204810518</v>
+        <v>24.81324384137689</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>25.59381941956323</v>
+        <v>25.44295896100634</v>
       </c>
       <c r="C191">
-        <v>25.58982239755258</v>
+        <v>25.65955802277072</v>
       </c>
       <c r="D191">
-        <v>24.73026302991893</v>
+        <v>25.50817908096575</v>
       </c>
       <c r="E191">
-        <v>25.57680079183729</v>
+        <v>25.51167274700205</v>
       </c>
       <c r="F191">
-        <v>25.06942748243705</v>
+        <v>24.68553823043419</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>25.46329499240182</v>
+        <v>25.31318064783025</v>
       </c>
       <c r="C192">
-        <v>25.45930196344712</v>
+        <v>25.52910823695932</v>
       </c>
       <c r="D192">
-        <v>24.6030772567545</v>
+        <v>25.37774026579732</v>
       </c>
       <c r="E192">
-        <v>25.44629338234387</v>
+        <v>25.38123045449782</v>
       </c>
       <c r="F192">
-        <v>24.939529704491</v>
+        <v>24.5579619867867</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>25.33290104496544</v>
+        <v>25.18353499386904</v>
       </c>
       <c r="C193">
-        <v>25.32891200531655</v>
+        <v>25.39878957214141</v>
       </c>
       <c r="D193">
-        <v>24.47602832947901</v>
+        <v>25.24743184488553</v>
       </c>
       <c r="E193">
-        <v>25.31591643523177</v>
+        <v>25.25091855844201</v>
       </c>
       <c r="F193">
-        <v>24.80975872305141</v>
+        <v>24.4305150165641</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>25.20263744708043</v>
+        <v>25.05402190056351</v>
       </c>
       <c r="C194">
-        <v>25.19865239297944</v>
+        <v>25.26860190433908</v>
       </c>
       <c r="D194">
-        <v>24.34911626229241</v>
+        <v>25.11725368815897</v>
       </c>
       <c r="E194">
-        <v>25.18566982038262</v>
+        <v>25.12073692885618</v>
       </c>
       <c r="F194">
-        <v>24.68011453905902</v>
+        <v>24.30319722570075</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>25.07250406872295</v>
+        <v>24.92464126965903</v>
       </c>
       <c r="C195">
-        <v>25.06852299638572</v>
+        <v>25.13854510974141</v>
       </c>
       <c r="D195">
-        <v>24.22234106942085</v>
+        <v>24.98720566566454</v>
       </c>
       <c r="E195">
-        <v>25.05555340780449</v>
+        <v>24.99068543589167</v>
       </c>
       <c r="F195">
-        <v>24.55059713167832</v>
+        <v>24.17600851984148</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>24.94250077999575</v>
+        <v>24.79539300286263</v>
       </c>
       <c r="C196">
-        <v>24.93852368561086</v>
+        <v>25.0086190647163</v>
       </c>
       <c r="D196">
-        <v>24.09570276479944</v>
+        <v>24.85728764757599</v>
       </c>
       <c r="E196">
-        <v>24.92556706763131</v>
+        <v>24.86076394982926</v>
       </c>
       <c r="F196">
-        <v>24.42120649020208</v>
+        <v>24.04894880448675</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>24.81262745110125</v>
+        <v>24.66627700202106</v>
       </c>
       <c r="C197">
-        <v>24.80865433086262</v>
+        <v>24.87882364586363</v>
       </c>
       <c r="D197">
-        <v>23.96920136237388</v>
+        <v>24.7274995042101</v>
       </c>
       <c r="E197">
-        <v>24.79571067011675</v>
+        <v>24.73097234105092</v>
       </c>
       <c r="F197">
-        <v>24.29194259639753</v>
+        <v>23.92201798492009</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>24.68288395239936</v>
+        <v>24.53729316941865</v>
       </c>
       <c r="C198">
-        <v>24.67891480248102</v>
+        <v>24.74915872998279</v>
       </c>
       <c r="D198">
-        <v>23.84283687639392</v>
+        <v>24.59784110599866</v>
       </c>
       <c r="E198">
-        <v>24.66598408565684</v>
+        <v>24.60131048006756</v>
       </c>
       <c r="F198">
-        <v>24.1628054263302</v>
+        <v>23.79521596633129</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>24.55327015437559</v>
+        <v>24.40844140738117</v>
       </c>
       <c r="C199">
-        <v>24.54930497093554</v>
+        <v>24.61962419408236</v>
       </c>
       <c r="D199">
-        <v>23.71660932113696</v>
+        <v>24.46831232350776</v>
       </c>
       <c r="E199">
-        <v>24.53638718477511</v>
+        <v>24.47177823751976</v>
       </c>
       <c r="F199">
-        <v>24.03379494305853</v>
+        <v>23.66854265380652</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>24.42378592763383</v>
+        <v>24.27972161847306</v>
       </c>
       <c r="C200">
-        <v>24.4198247068254</v>
+        <v>24.49021991538287</v>
       </c>
       <c r="D200">
-        <v>23.59051871106743</v>
+        <v>24.33891302743369</v>
       </c>
       <c r="E200">
-        <v>24.40691983809484</v>
+        <v>24.34237548417881</v>
       </c>
       <c r="F200">
-        <v>23.90491111479269</v>
+        <v>23.54199795241736</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>24.29443114290709</v>
+        <v>24.1511337056778</v>
       </c>
       <c r="C201">
-        <v>24.29047388088078</v>
+        <v>24.36094577133656</v>
       </c>
       <c r="D201">
-        <v>23.46456506092726</v>
+        <v>24.20964308860666</v>
       </c>
       <c r="E201">
-        <v>24.27758191639984</v>
+        <v>24.21310209090775</v>
       </c>
       <c r="F201">
-        <v>23.77615390255381</v>
+        <v>23.41558176717994</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>24.16520567106617</v>
+        <v>24.02267757219363</v>
       </c>
       <c r="C202">
-        <v>24.1612523639663</v>
+        <v>24.23180163960751</v>
       </c>
       <c r="D202">
-        <v>23.338748385959</v>
+        <v>24.0805023779806</v>
       </c>
       <c r="E202">
-        <v>24.14837329059508</v>
+        <v>24.08395792872875</v>
       </c>
       <c r="F202">
-        <v>23.64752326326503</v>
+        <v>23.28929400308245</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>24.03610938310738</v>
+        <v>23.89435312155105</v>
       </c>
       <c r="C203">
-        <v>24.03216002707252</v>
+        <v>24.10278739808842</v>
       </c>
       <c r="D203">
-        <v>23.21306870169825</v>
+        <v>23.9514907666398</v>
       </c>
       <c r="E203">
-        <v>24.01929383170209</v>
+        <v>23.95494286877838</v>
       </c>
       <c r="F203">
-        <v>23.51901914762454</v>
+        <v>23.16313456515855</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>23.90714215015558</v>
+        <v>23.76616025767846</v>
       </c>
       <c r="C204">
-        <v>23.90319674132234</v>
+        <v>23.97390292489753</v>
       </c>
       <c r="D204">
-        <v>23.087526024182</v>
+        <v>23.82260812580467</v>
       </c>
       <c r="E204">
-        <v>23.89034341087608</v>
+        <v>23.8260567823019</v>
       </c>
       <c r="F204">
-        <v>23.39064150623349</v>
+        <v>23.03710335845581</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>23.77830384346705</v>
+        <v>23.63809888485721</v>
       </c>
       <c r="C205">
-        <v>23.77436237797163</v>
+        <v>23.84514809838964</v>
       </c>
       <c r="D205">
-        <v>22.96212037034578</v>
+        <v>23.69385432681687</v>
       </c>
       <c r="E205">
-        <v>23.76152189940614</v>
+        <v>23.69729954068659</v>
       </c>
       <c r="F205">
-        <v>23.26239028553129</v>
+        <v>22.91120028814847</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>23.64959433442773</v>
+        <v>23.51016890777758</v>
       </c>
       <c r="C206">
-        <v>23.64565680840428</v>
+        <v>23.716522797147</v>
       </c>
       <c r="D206">
-        <v>22.83685175776701</v>
+        <v>23.56522924115262</v>
       </c>
       <c r="E206">
-        <v>23.63282916870686</v>
+        <v>23.56867101544013</v>
       </c>
       <c r="F206">
-        <v>23.13426542839644</v>
+        <v>22.78542525943997</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>23.5210134945563</v>
+        <v>23.38237023157231</v>
       </c>
       <c r="C207">
-        <v>23.5170799041362</v>
+        <v>23.58802689998408</v>
       </c>
       <c r="D207">
-        <v>22.7117202047806</v>
+        <v>23.4367327404172</v>
       </c>
       <c r="E207">
-        <v>23.50426509032108</v>
+        <v>23.44017107819646</v>
       </c>
       <c r="F207">
-        <v>23.00626687291361</v>
+        <v>22.65977817772643</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>23.39256119550009</v>
+        <v>23.25470276178499</v>
       </c>
       <c r="C208">
-        <v>23.38863153681409</v>
+        <v>23.45966028596082</v>
       </c>
       <c r="D208">
-        <v>22.58672573031596</v>
+        <v>23.30836469634682</v>
       </c>
       <c r="E208">
-        <v>23.37582953592247</v>
+        <v>23.31179960071444</v>
       </c>
       <c r="F208">
-        <v>22.87839455761194</v>
+        <v>22.53425894848172</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>23.2642373090383</v>
+        <v>23.12716640443668</v>
       </c>
       <c r="C209">
-        <v>23.2603115782166</v>
+        <v>23.33142283436997</v>
       </c>
       <c r="D209">
-        <v>22.46186835441344</v>
+        <v>23.18012498080628</v>
       </c>
       <c r="E209">
-        <v>23.24752237731404</v>
+        <v>23.18355645488536</v>
       </c>
       <c r="F209">
-        <v>22.75064841767307</v>
+        <v>22.40886747732632</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>23.13604170707976</v>
+        <v>22.99976106605894</v>
       </c>
       <c r="C210">
-        <v>23.13211990025234</v>
+        <v>23.20331442474909</v>
       </c>
       <c r="D210">
-        <v>22.33714809811809</v>
+        <v>23.05201346579182</v>
       </c>
       <c r="E210">
-        <v>23.11934348643147</v>
+        <v>23.05544151272756</v>
       </c>
       <c r="F210">
-        <v>22.62302838461201</v>
+        <v>22.28360367009825</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>23.00797426166529</v>
+        <v>22.87248665362886</v>
       </c>
       <c r="C211">
-        <v>23.00405637496138</v>
+        <v>23.07533493688088</v>
       </c>
       <c r="D211">
-        <v>22.2125649833463</v>
+        <v>22.92403002343209</v>
       </c>
       <c r="E211">
-        <v>22.99129273533799</v>
+        <v>22.9274546463872</v>
       </c>
       <c r="F211">
-        <v>22.49553438615075</v>
+        <v>22.15846743277492</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>22.88003484496766</v>
+        <v>22.74534307466032</v>
       </c>
       <c r="C212">
-        <v>22.87612087451574</v>
+        <v>22.94748425079796</v>
       </c>
       <c r="D212">
-        <v>22.08811903307785</v>
+        <v>22.79617452598465</v>
       </c>
       <c r="E212">
-        <v>22.86336999622847</v>
+        <v>22.79959572813945</v>
       </c>
       <c r="F212">
-        <v>22.3681663511275</v>
+        <v>22.03345867168409</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>22.7522233292891</v>
+        <v>22.61833023722673</v>
       </c>
       <c r="C213">
-        <v>22.74831327121813</v>
+        <v>22.81976224678058</v>
       </c>
       <c r="D213">
-        <v>21.96381027155434</v>
+        <v>22.66844684583859</v>
       </c>
       <c r="E213">
-        <v>22.73557514142721</v>
+        <v>22.67186463039102</v>
       </c>
       <c r="F213">
-        <v>22.24092420529029</v>
+        <v>21.90857729338429</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>22.62453958706103</v>
+        <v>22.49144804990786</v>
       </c>
       <c r="C214">
-        <v>22.62063343750273</v>
+        <v>22.69216880536413</v>
       </c>
       <c r="D214">
-        <v>21.83963872425694</v>
+        <v>22.54084685551421</v>
       </c>
       <c r="E214">
-        <v>22.60790804339053</v>
+        <v>22.54426122567777</v>
       </c>
       <c r="F214">
-        <v>22.11380787085625</v>
+        <v>21.78382320466369</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22.49698349084931</v>
+        <v>22.36469642186591</v>
       </c>
       <c r="C215">
-        <v>22.49308124593435</v>
+        <v>22.56470380734303</v>
       </c>
       <c r="D215">
-        <v>21.71560441852039</v>
+        <v>22.41337442766337</v>
       </c>
       <c r="E215">
-        <v>22.48036857470584</v>
+        <v>22.41678538666035</v>
       </c>
       <c r="F215">
-        <v>21.98681726791168</v>
+        <v>21.65919631255567</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>22.36955491334947</v>
+        <v>22.23807526285799</v>
       </c>
       <c r="C216">
-        <v>22.3656565692099</v>
+        <v>22.43736713376806</v>
       </c>
       <c r="D216">
-        <v>21.59170738198953</v>
+        <v>22.28602943506683</v>
       </c>
       <c r="E216">
-        <v>22.35295660808917</v>
+        <v>22.28943698613478</v>
       </c>
       <c r="F216">
-        <v>21.85995231666512</v>
+        <v>21.5346965244</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.24225372738564</v>
+        <v>22.11158448322498</v>
       </c>
       <c r="C217">
-        <v>22.23835928015706</v>
+        <v>22.31015866595415</v>
       </c>
       <c r="D217">
-        <v>21.46794764481655</v>
+        <v>22.15881175063792</v>
       </c>
       <c r="E217">
-        <v>22.22567201638686</v>
+        <v>22.16221589702402</v>
       </c>
       <c r="F217">
-        <v>21.73321293489372</v>
+        <v>21.41032374788513</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>22.11507980591535</v>
+        <v>21.98522399393006</v>
       </c>
       <c r="C218">
-        <v>22.11118925173402</v>
+        <v>22.18307828548174</v>
       </c>
       <c r="D218">
-        <v>21.34432523688628</v>
+        <v>22.03172124742066</v>
       </c>
       <c r="E218">
-        <v>22.0985146725785</v>
+        <v>22.03512199237891</v>
       </c>
       <c r="F218">
-        <v>21.60659903764538</v>
+        <v>21.28607789100951</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>21.98803302202613</v>
+        <v>21.85899370657206</v>
       </c>
       <c r="C219">
-        <v>21.9841463570309</v>
+        <v>22.05612587419902</v>
       </c>
       <c r="D219">
-        <v>21.22084019128267</v>
+        <v>21.90475779858872</v>
       </c>
       <c r="E219">
-        <v>21.97148444977294</v>
+        <v>21.90815514538228</v>
       </c>
       <c r="F219">
-        <v>21.48011053888914</v>
+        <v>21.16195886217421</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>21.86111324893652</v>
+        <v>21.73289353339983</v>
       </c>
       <c r="C220">
-        <v>21.85723046926856</v>
+        <v>21.92930131422599</v>
       </c>
       <c r="D220">
-        <v>21.09749254147029</v>
+        <v>21.77792127744753</v>
       </c>
       <c r="E220">
-        <v>21.84458122120776</v>
+        <v>21.78131522934606</v>
       </c>
       <c r="F220">
-        <v>21.35374735168982</v>
+        <v>21.0379665701118</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>21.73432035999578</v>
+        <v>21.60692338732983</v>
       </c>
       <c r="C221">
-        <v>21.73044146179878</v>
+        <v>21.80260448795662</v>
       </c>
       <c r="D221">
-        <v>20.97428232369698</v>
+        <v>21.6512115574331</v>
       </c>
       <c r="E221">
-        <v>21.71780486025357</v>
+        <v>21.65460211771186</v>
       </c>
       <c r="F221">
-        <v>21.22750938746643</v>
+        <v>20.91410092395653</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>21.60765422868402</v>
+        <v>21.4810831819635</v>
       </c>
       <c r="C222">
-        <v>21.6037792081045</v>
+        <v>21.67603527806236</v>
       </c>
       <c r="D222">
-        <v>20.85120957539564</v>
+        <v>21.5246285121124</v>
       </c>
       <c r="E222">
-        <v>21.59115524041079</v>
+        <v>21.52801568405112</v>
       </c>
       <c r="F222">
-        <v>21.10139655560494</v>
+        <v>20.79036183326997</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21.48111472861261</v>
+        <v>21.35537283160303</v>
       </c>
       <c r="C223">
-        <v>21.47724358179978</v>
+        <v>21.54959356749686</v>
       </c>
       <c r="D223">
-        <v>20.72827433625339</v>
+        <v>21.39817201518294</v>
       </c>
       <c r="E223">
-        <v>21.46463223531049</v>
+        <v>21.40155580206659</v>
       </c>
       <c r="F223">
-        <v>20.97540876485343</v>
+        <v>20.66674920802534</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>21.35470173352402</v>
+        <v>21.22979225127006</v>
       </c>
       <c r="C224">
-        <v>21.35083445662975</v>
+        <v>21.42327923949566</v>
       </c>
       <c r="D224">
-        <v>20.60547664760428</v>
+        <v>21.27184194047373</v>
       </c>
       <c r="E224">
-        <v>21.33823571871432</v>
+        <v>21.27522234559041</v>
       </c>
       <c r="F224">
-        <v>20.84954592284988</v>
+        <v>20.54326295864918</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>21.22841511729129</v>
+        <v>21.10434135672192</v>
       </c>
       <c r="C225">
-        <v>21.22455170647038</v>
+        <v>21.29709217758501</v>
       </c>
       <c r="D225">
-        <v>20.48281655292183</v>
+        <v>21.14563816194458</v>
       </c>
       <c r="E225">
-        <v>21.21196556451461</v>
+        <v>21.14901518858533</v>
       </c>
       <c r="F225">
-        <v>20.72380793610102</v>
+        <v>20.41990299601786</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>21.10225475391862</v>
+        <v>20.97902006446731</v>
       </c>
       <c r="C226">
-        <v>21.09839520532893</v>
+        <v>21.17103226558394</v>
       </c>
       <c r="D226">
-        <v>20.36029409745544</v>
+        <v>21.01956055368575</v>
       </c>
       <c r="E226">
-        <v>21.08582164673492</v>
+        <v>21.02293420514397</v>
       </c>
       <c r="F226">
-        <v>20.59819470909462</v>
+        <v>20.29666923150113</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>20.97622051754115</v>
+        <v>20.853828291785</v>
       </c>
       <c r="C227">
-        <v>20.97236482734363</v>
+        <v>21.04509938759996</v>
       </c>
       <c r="D227">
-        <v>20.2379093284884</v>
+        <v>20.89360898991846</v>
       </c>
       <c r="E227">
-        <v>20.95980383952946</v>
+        <v>20.89697926949041</v>
       </c>
       <c r="F227">
-        <v>20.47270614640395</v>
+        <v>20.1735615769646</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>20.85031228242512</v>
+        <v>20.72876595673992</v>
       </c>
       <c r="C228">
-        <v>20.84646044678369</v>
+        <v>20.91929342803848</v>
       </c>
       <c r="D228">
-        <v>20.11566229517924</v>
+        <v>20.76778334499537</v>
       </c>
       <c r="E228">
-        <v>20.83391201718305</v>
+        <v>20.77115025597931</v>
       </c>
       <c r="F228">
-        <v>20.34734215141923</v>
+        <v>20.05057994476615</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>20.72452992296778</v>
+        <v>20.60383297820826</v>
       </c>
       <c r="C229">
-        <v>20.72068193804942</v>
+        <v>20.79361427161271</v>
       </c>
       <c r="D229">
-        <v>19.99355304938693</v>
+        <v>20.64208349340019</v>
       </c>
       <c r="E229">
-        <v>20.70814605411148</v>
+        <v>20.64544703909612</v>
       </c>
       <c r="F229">
-        <v>20.22210262661749</v>
+        <v>19.92772424781285</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>20.59887331369684</v>
+        <v>20.47902927588249</v>
       </c>
       <c r="C230">
-        <v>20.59502917567211</v>
+        <v>20.6680618033533</v>
       </c>
       <c r="D230">
-        <v>19.87158164514512</v>
+        <v>20.51650930974676</v>
       </c>
       <c r="E230">
-        <v>20.58250582486149</v>
+        <v>20.51986949345292</v>
       </c>
       <c r="F230">
-        <v>20.09698747260654</v>
+        <v>19.80499439956306</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>20.47334232927153</v>
+        <v>20.35435477029516</v>
       </c>
       <c r="C231">
-        <v>20.46950203431415</v>
+        <v>20.54263590857608</v>
       </c>
       <c r="D231">
-        <v>19.74974813863716</v>
+        <v>20.39106066878007</v>
       </c>
       <c r="E231">
-        <v>20.45699120411069</v>
+        <v>20.39441749379757</v>
       </c>
       <c r="F231">
-        <v>19.97199659043211</v>
+        <v>19.68239031403516</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>20.34793684448187</v>
+        <v>20.22980938285573</v>
       </c>
       <c r="C232">
-        <v>20.34410038876886</v>
+        <v>20.41733647291627</v>
       </c>
       <c r="D232">
-        <v>19.62805258871274</v>
+        <v>20.26573744537638</v>
       </c>
       <c r="E232">
-        <v>20.33160206666764</v>
+        <v>20.26909091500722</v>
       </c>
       <c r="F232">
-        <v>19.84712988000214</v>
+        <v>19.55991190584279</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>20.2226567342488</v>
+        <v>20.10539303583641</v>
       </c>
       <c r="C233">
-        <v>20.21882411396064</v>
+        <v>20.29216338233139</v>
       </c>
       <c r="D233">
-        <v>19.50649505661879</v>
+        <v>20.14053951454339</v>
       </c>
       <c r="E233">
-        <v>20.20633828747135</v>
+        <v>20.1438896320901</v>
       </c>
       <c r="F233">
-        <v>19.72238724039606</v>
+        <v>19.43755909018362</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>20.09750187362423</v>
+        <v>19.98110565240885</v>
       </c>
       <c r="C234">
-        <v>20.09367308494491</v>
+        <v>20.16711652313248</v>
       </c>
       <c r="D234">
-        <v>19.38507560619211</v>
+        <v>20.01546675141882</v>
       </c>
       <c r="E234">
-        <v>20.08119974159226</v>
+        <v>20.01881352018108</v>
       </c>
       <c r="F234">
-        <v>19.59776856934859</v>
+        <v>19.315331782902</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>19.97247213779106</v>
+        <v>19.85694715668752</v>
       </c>
       <c r="C235">
-        <v>19.96864717690841</v>
+        <v>20.04219578191009</v>
       </c>
       <c r="D235">
-        <v>19.26379430368122</v>
+        <v>19.89051903127169</v>
       </c>
       <c r="E235">
-        <v>19.95618630423162</v>
+        <v>19.89386245455013</v>
       </c>
       <c r="F235">
-        <v>19.47327376480925</v>
+        <v>19.19322990044013</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>19.84756740206328</v>
+        <v>19.73291747370153</v>
       </c>
       <c r="C236">
-        <v>19.84374626516857</v>
+        <v>19.9174010455997</v>
       </c>
       <c r="D236">
-        <v>19.1426512182383</v>
+        <v>19.76569622950216</v>
       </c>
       <c r="E236">
-        <v>19.83129785072145</v>
+        <v>19.76903631059726</v>
       </c>
       <c r="F236">
-        <v>19.34890272381715</v>
+        <v>19.07125335994359</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>19.72278754188612</v>
+        <v>19.60901652944417</v>
       </c>
       <c r="C237">
-        <v>19.71897022517398</v>
+        <v>19.79273220147225</v>
       </c>
       <c r="D237">
-        <v>19.02164642179983</v>
+        <v>19.64099822164208</v>
       </c>
       <c r="E237">
-        <v>19.70653425652486</v>
+        <v>19.64433496385314</v>
       </c>
       <c r="F237">
-        <v>19.22465534268579</v>
+        <v>18.94940207921486</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>19.5981324328355</v>
+        <v>19.48524425094303</v>
       </c>
       <c r="C238">
-        <v>19.59431893250421</v>
+        <v>19.66818913718442</v>
       </c>
       <c r="D238">
-        <v>18.9007799891631</v>
+        <v>19.51642488335344</v>
       </c>
       <c r="E238">
-        <v>19.58189539723591</v>
+        <v>19.51975828997816</v>
       </c>
       <c r="F238">
-        <v>19.10053151688688</v>
+        <v>18.8276759767896</v>
       </c>
     </row>
   </sheetData>
